--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99909028334604</v>
+        <v>25.99909028334605</v>
       </c>
       <c r="C2">
-        <v>16.10279464965923</v>
+        <v>16.10279464965916</v>
       </c>
       <c r="D2">
-        <v>7.367534375306446</v>
+        <v>7.367534375306482</v>
       </c>
       <c r="E2">
-        <v>13.50001935263554</v>
+        <v>13.50001935263551</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.91316111009201</v>
+        <v>63.91316111009198</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.18860104758253</v>
+        <v>16.18860104758259</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.93702986456599</v>
+        <v>23.93702986456584</v>
       </c>
       <c r="C3">
-        <v>14.81764366204614</v>
+        <v>14.81764366204622</v>
       </c>
       <c r="D3">
-        <v>6.80504656237038</v>
+        <v>6.805046562370273</v>
       </c>
       <c r="E3">
-        <v>12.45382055851376</v>
+        <v>12.45382055851368</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.60874992990234</v>
+        <v>59.60874992990207</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.94128142516295</v>
+        <v>14.94128142516289</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63179554679661</v>
+        <v>22.6317955467966</v>
       </c>
       <c r="C4">
-        <v>14.0069398985277</v>
+        <v>14.00693989852778</v>
       </c>
       <c r="D4">
-        <v>6.447292971313781</v>
+        <v>6.447292971313794</v>
       </c>
       <c r="E4">
-        <v>11.84090146643016</v>
+        <v>11.84090146643017</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.90800315861966</v>
+        <v>56.90800315861978</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08920690395245</v>
+        <v>22.08920690395266</v>
       </c>
       <c r="C5">
-        <v>13.67046171992879</v>
+        <v>13.67046171992883</v>
       </c>
       <c r="D5">
-        <v>6.298174165273018</v>
+        <v>6.298174165272941</v>
       </c>
       <c r="E5">
-        <v>11.59778160211505</v>
+        <v>11.5977816021151</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.79181396087372</v>
+        <v>55.79181396087417</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.82118789607937</v>
+        <v>13.82118789607944</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99844227101612</v>
+        <v>21.99844227101618</v>
       </c>
       <c r="C6">
-        <v>13.61420295538359</v>
+        <v>13.61420295538354</v>
       </c>
       <c r="D6">
-        <v>6.27320612468634</v>
+        <v>6.273206124686278</v>
       </c>
       <c r="E6">
-        <v>11.55721869893472</v>
+        <v>11.55721869893467</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.60550509087938</v>
+        <v>55.60550509087944</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.76610315925615</v>
+        <v>13.7661031592561</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62452233554296</v>
+        <v>22.62452233554305</v>
       </c>
       <c r="C7">
-        <v>14.00242759196246</v>
+        <v>14.00242759196243</v>
       </c>
       <c r="D7">
-        <v>6.445295656200808</v>
+        <v>6.445295656200726</v>
       </c>
       <c r="E7">
-        <v>11.83763552307373</v>
+        <v>11.83763552307379</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.8930141761628</v>
+        <v>56.89301417616277</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.14593707757615</v>
+        <v>14.14593707757623</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.29564444039289</v>
+        <v>25.29564444039286</v>
       </c>
       <c r="C8">
-        <v>15.66372016920773</v>
+        <v>15.6637201692074</v>
       </c>
       <c r="D8">
-        <v>7.176017461755801</v>
+        <v>7.176017461755668</v>
       </c>
       <c r="E8">
-        <v>13.14354116988633</v>
+        <v>13.14354116988629</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.44021954383395</v>
+        <v>62.44021954383354</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.76337509590313</v>
+        <v>15.7633750959031</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.27209540794539</v>
+        <v>30.27209540794532</v>
       </c>
       <c r="C9">
         <v>18.78752320665476</v>
       </c>
       <c r="D9">
-        <v>8.522646581593909</v>
+        <v>8.522646581593914</v>
       </c>
       <c r="E9">
-        <v>15.65633538271225</v>
+        <v>15.65633538271215</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.93381920687328</v>
+        <v>72.93381920687277</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.76629036096023</v>
+        <v>18.76629036096016</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.85882388377682</v>
+        <v>33.85882388377703</v>
       </c>
       <c r="C10">
-        <v>21.06931358955551</v>
+        <v>21.06931358955581</v>
       </c>
       <c r="D10">
-        <v>9.480863283163679</v>
+        <v>9.480863283163837</v>
       </c>
       <c r="E10">
-        <v>17.45419556143757</v>
+        <v>17.45419556143765</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.56331821712128</v>
+        <v>80.56331821712183</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.92410809137954</v>
+        <v>20.92410809137965</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.50503668273294</v>
+        <v>35.50503668273316</v>
       </c>
       <c r="C11">
-        <v>22.12686161499661</v>
+        <v>22.12686161499666</v>
       </c>
       <c r="D11">
-        <v>9.916916517210259</v>
+        <v>9.916916517210286</v>
       </c>
       <c r="E11">
-        <v>18.2754766872801</v>
+        <v>18.27547668728016</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.11812556092417</v>
+        <v>84.11812556092458</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.91295604027006</v>
+        <v>21.91295604027012</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.13412449447573</v>
+        <v>36.13412449447589</v>
       </c>
       <c r="C12">
-        <v>22.53287213472372</v>
+        <v>22.5328721347235</v>
       </c>
       <c r="D12">
-        <v>10.08289185894698</v>
+        <v>10.08289185894697</v>
       </c>
       <c r="E12">
-        <v>18.58864726502941</v>
+        <v>18.58864726502944</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.50426522612496</v>
+        <v>85.50426522612541</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.29060072386606</v>
+        <v>22.29060072386602</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.99831352652556</v>
+        <v>35.99831352652566</v>
       </c>
       <c r="C13">
-        <v>22.44512952095011</v>
+        <v>22.4451295209502</v>
       </c>
       <c r="D13">
-        <v>10.04709175554538</v>
+        <v>10.04709175554533</v>
       </c>
       <c r="E13">
         <v>18.52107048623169</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.20510674383621</v>
+        <v>85.20510674383618</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.20908347592029</v>
+        <v>22.20908347592032</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.55665239730675</v>
+        <v>35.55665239730651</v>
       </c>
       <c r="C14">
-        <v>22.16013404402562</v>
+        <v>22.16013404402532</v>
       </c>
       <c r="D14">
-        <v>9.93054852510935</v>
+        <v>9.930548525109309</v>
       </c>
       <c r="E14">
-        <v>18.30118614549407</v>
+        <v>18.30118614549402</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.23189485557735</v>
+        <v>84.23189485557614</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.94394604295698</v>
+        <v>21.94394604295692</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.28699428962128</v>
+        <v>35.28699428962119</v>
       </c>
       <c r="C15">
-        <v>21.9863856338988</v>
+        <v>21.98638563389903</v>
       </c>
       <c r="D15">
         <v>9.859302945703982</v>
       </c>
       <c r="E15">
-        <v>18.16684320326703</v>
+        <v>18.16684320326701</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.63745290975017</v>
+        <v>83.63745290975039</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.78203409240688</v>
+        <v>21.78203409240689</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.75181360502521</v>
+        <v>33.75181360502499</v>
       </c>
       <c r="C16">
-        <v>21.00080558371408</v>
+        <v>21.0008055837141</v>
       </c>
       <c r="D16">
-        <v>9.45243387796147</v>
+        <v>9.452433877961298</v>
       </c>
       <c r="E16">
-        <v>17.400722242288</v>
+        <v>17.40072224228783</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.33533171373671</v>
+        <v>80.33533171373564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.85979726869722</v>
+        <v>20.85979726869718</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.81596094307938</v>
+        <v>32.81596094307931</v>
       </c>
       <c r="C17">
-        <v>20.4028508151427</v>
+        <v>20.40285081514283</v>
       </c>
       <c r="D17">
-        <v>9.203379537826478</v>
+        <v>9.203379537826581</v>
       </c>
       <c r="E17">
-        <v>16.93263187721187</v>
+        <v>16.93263187721194</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.34212581616539</v>
+        <v>78.34212581616555</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.29719909995599</v>
+        <v>20.2971990999561</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.27878349432648</v>
+        <v>32.27878349432649</v>
       </c>
       <c r="C18">
-        <v>20.06055628419796</v>
+        <v>20.06055628419773</v>
       </c>
       <c r="D18">
-        <v>9.0600822143077</v>
+        <v>9.060082214307739</v>
       </c>
       <c r="E18">
-        <v>16.66359439588347</v>
+        <v>16.66359439588356</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.19869612241608</v>
+        <v>77.19869612241679</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.97412703893574</v>
+        <v>19.97412703893579</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.09700294581525</v>
+        <v>32.09700294581496</v>
       </c>
       <c r="C19">
         <v>19.94487332901417</v>
       </c>
       <c r="D19">
-        <v>9.011535059663537</v>
+        <v>9.011535059663474</v>
       </c>
       <c r="E19">
-        <v>16.57249434259713</v>
+        <v>16.57249434259702</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.81189666232807</v>
+        <v>76.81189666232751</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.8647756449902</v>
+        <v>19.8647756449901</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.9154480060217</v>
+        <v>32.91544800602184</v>
       </c>
       <c r="C20">
-        <v>20.46631831162831</v>
+        <v>20.46631831162849</v>
       </c>
       <c r="D20">
-        <v>9.22989162511456</v>
+        <v>9.229891625114531</v>
       </c>
       <c r="E20">
-        <v>16.98243029910656</v>
+        <v>16.98243029910654</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.55395256309596</v>
+        <v>78.55395256309671</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.3570216375898</v>
+        <v>20.35702163758982</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.68618881433652</v>
+        <v>35.6861888143366</v>
       </c>
       <c r="C21">
-        <v>22.24366694659929</v>
+        <v>22.24366694659943</v>
       </c>
       <c r="D21">
-        <v>9.96474888931939</v>
+        <v>9.964748889319468</v>
       </c>
       <c r="E21">
-        <v>18.36569621094844</v>
+        <v>18.36569621094846</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.51738426059168</v>
+        <v>84.51738426059229</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.0217157117855</v>
+        <v>22.02171571178556</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.53305033423631</v>
+        <v>37.53305033423612</v>
       </c>
       <c r="C22">
         <v>23.43967082192734</v>
       </c>
       <c r="D22">
-        <v>10.4506164511188</v>
+        <v>10.45061645111882</v>
       </c>
       <c r="E22">
-        <v>19.28367214504704</v>
+        <v>19.28367214504696</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.58257319921734</v>
+        <v>88.58257319921617</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.12993409905094</v>
+        <v>23.1299340990508</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.54247273774012</v>
+        <v>36.54247273773991</v>
       </c>
       <c r="C23">
-        <v>22.79699741421096</v>
+        <v>22.79699741421089</v>
       </c>
       <c r="D23">
-        <v>10.19042749168276</v>
+        <v>10.19042749168273</v>
       </c>
       <c r="E23">
-        <v>18.79172516184208</v>
+        <v>18.79172516184207</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.40344399979068</v>
+        <v>86.40344399978979</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.53566652097127</v>
+        <v>22.53566652097121</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.87046748864027</v>
+        <v>32.87046748864007</v>
       </c>
       <c r="C24">
-        <v>20.43762024482263</v>
+        <v>20.43762024482249</v>
       </c>
       <c r="D24">
-        <v>9.217905919527476</v>
+        <v>9.21790591952753</v>
       </c>
       <c r="E24">
-        <v>16.95991631982346</v>
+        <v>16.95991631982349</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.45817841152505</v>
+        <v>78.45817841152451</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.32997485648322</v>
+        <v>20.32997485648324</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.94595399108961</v>
+        <v>28.94595399108951</v>
       </c>
       <c r="C25">
-        <v>17.95077630936491</v>
+        <v>17.95077630936471</v>
       </c>
       <c r="D25">
-        <v>8.165683968088164</v>
+        <v>8.165683968088105</v>
       </c>
       <c r="E25">
         <v>14.98877493356625</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.96718826573251</v>
+        <v>17.96718826573246</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99909028334605</v>
+        <v>25.99909028334604</v>
       </c>
       <c r="C2">
-        <v>16.10279464965916</v>
+        <v>16.10279464965923</v>
       </c>
       <c r="D2">
-        <v>7.367534375306482</v>
+        <v>7.367534375306446</v>
       </c>
       <c r="E2">
-        <v>13.50001935263551</v>
+        <v>13.50001935263554</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.91316111009198</v>
+        <v>63.91316111009201</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.18860104758259</v>
+        <v>16.18860104758253</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.93702986456584</v>
+        <v>23.93702986456599</v>
       </c>
       <c r="C3">
-        <v>14.81764366204622</v>
+        <v>14.81764366204614</v>
       </c>
       <c r="D3">
-        <v>6.805046562370273</v>
+        <v>6.80504656237038</v>
       </c>
       <c r="E3">
-        <v>12.45382055851368</v>
+        <v>12.45382055851376</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.60874992990207</v>
+        <v>59.60874992990234</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.94128142516289</v>
+        <v>14.94128142516295</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6317955467966</v>
+        <v>22.63179554679661</v>
       </c>
       <c r="C4">
-        <v>14.00693989852778</v>
+        <v>14.0069398985277</v>
       </c>
       <c r="D4">
-        <v>6.447292971313794</v>
+        <v>6.447292971313781</v>
       </c>
       <c r="E4">
-        <v>11.84090146643017</v>
+        <v>11.84090146643016</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.90800315861978</v>
+        <v>56.90800315861966</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08920690395266</v>
+        <v>22.08920690395245</v>
       </c>
       <c r="C5">
-        <v>13.67046171992883</v>
+        <v>13.67046171992879</v>
       </c>
       <c r="D5">
-        <v>6.298174165272941</v>
+        <v>6.298174165273018</v>
       </c>
       <c r="E5">
-        <v>11.5977816021151</v>
+        <v>11.59778160211505</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.79181396087417</v>
+        <v>55.79181396087372</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.82118789607944</v>
+        <v>13.82118789607937</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99844227101618</v>
+        <v>21.99844227101612</v>
       </c>
       <c r="C6">
-        <v>13.61420295538354</v>
+        <v>13.61420295538359</v>
       </c>
       <c r="D6">
-        <v>6.273206124686278</v>
+        <v>6.27320612468634</v>
       </c>
       <c r="E6">
-        <v>11.55721869893467</v>
+        <v>11.55721869893472</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.60550509087944</v>
+        <v>55.60550509087938</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.7661031592561</v>
+        <v>13.76610315925615</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62452233554305</v>
+        <v>22.62452233554296</v>
       </c>
       <c r="C7">
-        <v>14.00242759196243</v>
+        <v>14.00242759196246</v>
       </c>
       <c r="D7">
-        <v>6.445295656200726</v>
+        <v>6.445295656200808</v>
       </c>
       <c r="E7">
-        <v>11.83763552307379</v>
+        <v>11.83763552307373</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.89301417616277</v>
+        <v>56.8930141761628</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.14593707757623</v>
+        <v>14.14593707757615</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.29564444039286</v>
+        <v>25.29564444039289</v>
       </c>
       <c r="C8">
-        <v>15.6637201692074</v>
+        <v>15.66372016920773</v>
       </c>
       <c r="D8">
-        <v>7.176017461755668</v>
+        <v>7.176017461755801</v>
       </c>
       <c r="E8">
-        <v>13.14354116988629</v>
+        <v>13.14354116988633</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.44021954383354</v>
+        <v>62.44021954383395</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.7633750959031</v>
+        <v>15.76337509590313</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.27209540794532</v>
+        <v>30.27209540794539</v>
       </c>
       <c r="C9">
         <v>18.78752320665476</v>
       </c>
       <c r="D9">
-        <v>8.522646581593914</v>
+        <v>8.522646581593909</v>
       </c>
       <c r="E9">
-        <v>15.65633538271215</v>
+        <v>15.65633538271225</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.93381920687277</v>
+        <v>72.93381920687328</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.76629036096016</v>
+        <v>18.76629036096023</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.85882388377703</v>
+        <v>33.85882388377682</v>
       </c>
       <c r="C10">
-        <v>21.06931358955581</v>
+        <v>21.06931358955551</v>
       </c>
       <c r="D10">
-        <v>9.480863283163837</v>
+        <v>9.480863283163679</v>
       </c>
       <c r="E10">
-        <v>17.45419556143765</v>
+        <v>17.45419556143757</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.56331821712183</v>
+        <v>80.56331821712128</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.92410809137965</v>
+        <v>20.92410809137954</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.50503668273316</v>
+        <v>35.50503668273294</v>
       </c>
       <c r="C11">
-        <v>22.12686161499666</v>
+        <v>22.12686161499661</v>
       </c>
       <c r="D11">
-        <v>9.916916517210286</v>
+        <v>9.916916517210259</v>
       </c>
       <c r="E11">
-        <v>18.27547668728016</v>
+        <v>18.2754766872801</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.11812556092458</v>
+        <v>84.11812556092417</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.91295604027012</v>
+        <v>21.91295604027006</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.13412449447589</v>
+        <v>36.13412449447573</v>
       </c>
       <c r="C12">
-        <v>22.5328721347235</v>
+        <v>22.53287213472372</v>
       </c>
       <c r="D12">
-        <v>10.08289185894697</v>
+        <v>10.08289185894698</v>
       </c>
       <c r="E12">
-        <v>18.58864726502944</v>
+        <v>18.58864726502941</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.50426522612541</v>
+        <v>85.50426522612496</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.29060072386602</v>
+        <v>22.29060072386606</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.99831352652566</v>
+        <v>35.99831352652556</v>
       </c>
       <c r="C13">
-        <v>22.4451295209502</v>
+        <v>22.44512952095011</v>
       </c>
       <c r="D13">
-        <v>10.04709175554533</v>
+        <v>10.04709175554538</v>
       </c>
       <c r="E13">
         <v>18.52107048623169</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.20510674383618</v>
+        <v>85.20510674383621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.20908347592032</v>
+        <v>22.20908347592029</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.55665239730651</v>
+        <v>35.55665239730675</v>
       </c>
       <c r="C14">
-        <v>22.16013404402532</v>
+        <v>22.16013404402562</v>
       </c>
       <c r="D14">
-        <v>9.930548525109309</v>
+        <v>9.93054852510935</v>
       </c>
       <c r="E14">
-        <v>18.30118614549402</v>
+        <v>18.30118614549407</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.23189485557614</v>
+        <v>84.23189485557735</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.94394604295692</v>
+        <v>21.94394604295698</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.28699428962119</v>
+        <v>35.28699428962128</v>
       </c>
       <c r="C15">
-        <v>21.98638563389903</v>
+        <v>21.9863856338988</v>
       </c>
       <c r="D15">
         <v>9.859302945703982</v>
       </c>
       <c r="E15">
-        <v>18.16684320326701</v>
+        <v>18.16684320326703</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.63745290975039</v>
+        <v>83.63745290975017</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.78203409240689</v>
+        <v>21.78203409240688</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.75181360502499</v>
+        <v>33.75181360502521</v>
       </c>
       <c r="C16">
-        <v>21.0008055837141</v>
+        <v>21.00080558371408</v>
       </c>
       <c r="D16">
-        <v>9.452433877961298</v>
+        <v>9.45243387796147</v>
       </c>
       <c r="E16">
-        <v>17.40072224228783</v>
+        <v>17.400722242288</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.33533171373564</v>
+        <v>80.33533171373671</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.85979726869718</v>
+        <v>20.85979726869722</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.81596094307931</v>
+        <v>32.81596094307938</v>
       </c>
       <c r="C17">
-        <v>20.40285081514283</v>
+        <v>20.4028508151427</v>
       </c>
       <c r="D17">
-        <v>9.203379537826581</v>
+        <v>9.203379537826478</v>
       </c>
       <c r="E17">
-        <v>16.93263187721194</v>
+        <v>16.93263187721187</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.34212581616555</v>
+        <v>78.34212581616539</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.2971990999561</v>
+        <v>20.29719909995599</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.27878349432649</v>
+        <v>32.27878349432648</v>
       </c>
       <c r="C18">
-        <v>20.06055628419773</v>
+        <v>20.06055628419796</v>
       </c>
       <c r="D18">
-        <v>9.060082214307739</v>
+        <v>9.0600822143077</v>
       </c>
       <c r="E18">
-        <v>16.66359439588356</v>
+        <v>16.66359439588347</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.19869612241679</v>
+        <v>77.19869612241608</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.97412703893579</v>
+        <v>19.97412703893574</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.09700294581496</v>
+        <v>32.09700294581525</v>
       </c>
       <c r="C19">
         <v>19.94487332901417</v>
       </c>
       <c r="D19">
-        <v>9.011535059663474</v>
+        <v>9.011535059663537</v>
       </c>
       <c r="E19">
-        <v>16.57249434259702</v>
+        <v>16.57249434259713</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.81189666232751</v>
+        <v>76.81189666232807</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.8647756449901</v>
+        <v>19.8647756449902</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.91544800602184</v>
+        <v>32.9154480060217</v>
       </c>
       <c r="C20">
-        <v>20.46631831162849</v>
+        <v>20.46631831162831</v>
       </c>
       <c r="D20">
-        <v>9.229891625114531</v>
+        <v>9.22989162511456</v>
       </c>
       <c r="E20">
-        <v>16.98243029910654</v>
+        <v>16.98243029910656</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.55395256309671</v>
+        <v>78.55395256309596</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.35702163758982</v>
+        <v>20.3570216375898</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6861888143366</v>
+        <v>35.68618881433652</v>
       </c>
       <c r="C21">
-        <v>22.24366694659943</v>
+        <v>22.24366694659929</v>
       </c>
       <c r="D21">
-        <v>9.964748889319468</v>
+        <v>9.96474888931939</v>
       </c>
       <c r="E21">
-        <v>18.36569621094846</v>
+        <v>18.36569621094844</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.51738426059229</v>
+        <v>84.51738426059168</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.02171571178556</v>
+        <v>22.0217157117855</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.53305033423612</v>
+        <v>37.53305033423631</v>
       </c>
       <c r="C22">
         <v>23.43967082192734</v>
       </c>
       <c r="D22">
-        <v>10.45061645111882</v>
+        <v>10.4506164511188</v>
       </c>
       <c r="E22">
-        <v>19.28367214504696</v>
+        <v>19.28367214504704</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.58257319921617</v>
+        <v>88.58257319921734</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.1299340990508</v>
+        <v>23.12993409905094</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.54247273773991</v>
+        <v>36.54247273774012</v>
       </c>
       <c r="C23">
-        <v>22.79699741421089</v>
+        <v>22.79699741421096</v>
       </c>
       <c r="D23">
-        <v>10.19042749168273</v>
+        <v>10.19042749168276</v>
       </c>
       <c r="E23">
-        <v>18.79172516184207</v>
+        <v>18.79172516184208</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.40344399978979</v>
+        <v>86.40344399979068</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.53566652097121</v>
+        <v>22.53566652097127</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.87046748864007</v>
+        <v>32.87046748864027</v>
       </c>
       <c r="C24">
-        <v>20.43762024482249</v>
+        <v>20.43762024482263</v>
       </c>
       <c r="D24">
-        <v>9.21790591952753</v>
+        <v>9.217905919527476</v>
       </c>
       <c r="E24">
-        <v>16.95991631982349</v>
+        <v>16.95991631982346</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.45817841152451</v>
+        <v>78.45817841152505</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.32997485648324</v>
+        <v>20.32997485648322</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.94595399108951</v>
+        <v>28.94595399108961</v>
       </c>
       <c r="C25">
-        <v>17.95077630936471</v>
+        <v>17.95077630936491</v>
       </c>
       <c r="D25">
-        <v>8.165683968088105</v>
+        <v>8.165683968088164</v>
       </c>
       <c r="E25">
         <v>14.98877493356625</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.96718826573246</v>
+        <v>17.96718826573251</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99909028334604</v>
+        <v>25.99335934190183</v>
       </c>
       <c r="C2">
-        <v>16.10279464965923</v>
+        <v>16.09587364253747</v>
       </c>
       <c r="D2">
-        <v>7.367534375306446</v>
+        <v>7.366810871705061</v>
       </c>
       <c r="E2">
-        <v>13.50001935263554</v>
+        <v>13.49919059251182</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.91316111009201</v>
+        <v>63.48966513284159</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.89802309842544</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.18860104758253</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.18637064188167</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.93702986456599</v>
+        <v>23.93280820696359</v>
       </c>
       <c r="C3">
-        <v>14.81764366204614</v>
+        <v>14.81228042320227</v>
       </c>
       <c r="D3">
-        <v>6.80504656237038</v>
+        <v>6.804521839949254</v>
       </c>
       <c r="E3">
-        <v>12.45382055851376</v>
+        <v>12.45324778767936</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.60874992990234</v>
+        <v>59.01526677090301</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.5969021775418</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.94128142516295</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.93961815176727</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63179554679661</v>
+        <v>22.62840253134257</v>
       </c>
       <c r="C4">
-        <v>14.0069398985277</v>
+        <v>14.00246275898973</v>
       </c>
       <c r="D4">
-        <v>6.447292971313781</v>
+        <v>6.446874023456749</v>
       </c>
       <c r="E4">
-        <v>11.84090146643016</v>
+        <v>11.84004834952158</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.90800315861966</v>
+        <v>56.19751926325242</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>56.89817552160977</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.15034785661532</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.14899299400384</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08920690395245</v>
+        <v>22.0861312559941</v>
       </c>
       <c r="C5">
-        <v>13.67046171992879</v>
+        <v>13.66633192137404</v>
       </c>
       <c r="D5">
-        <v>6.298174165273018</v>
+        <v>6.297795071290145</v>
       </c>
       <c r="E5">
-        <v>11.59778160211505</v>
+        <v>11.59699330344002</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.79181396087372</v>
+        <v>55.03028546712491</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>55.7828196023479</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.82118789607937</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.81995088078481</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99844227101612</v>
+        <v>21.99541820171058</v>
       </c>
       <c r="C6">
-        <v>13.61420295538359</v>
+        <v>13.61013010169793</v>
       </c>
       <c r="D6">
-        <v>6.27320612468634</v>
+        <v>6.2728334731529</v>
       </c>
       <c r="E6">
-        <v>11.55721869893472</v>
+        <v>11.55644097122201</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.60550509087938</v>
+        <v>54.83529147147589</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.59664997421959</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.76610315925615</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.76488529373655</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62452233554296</v>
+        <v>22.62113367749913</v>
       </c>
       <c r="C7">
-        <v>14.00242759196246</v>
+        <v>13.99795518785958</v>
       </c>
       <c r="D7">
-        <v>6.445295656200808</v>
+        <v>6.444877258012768</v>
       </c>
       <c r="E7">
-        <v>11.83763552307373</v>
+        <v>11.83678329398685</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.8930141761628</v>
+        <v>56.1818557687617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>56.88319772398049</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.14593707757615</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.14458383349198</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.29564444039289</v>
+        <v>25.29045724559574</v>
       </c>
       <c r="C8">
-        <v>15.66372016920773</v>
+        <v>15.65735355333158</v>
       </c>
       <c r="D8">
-        <v>7.176017461755801</v>
+        <v>7.175366451530595</v>
       </c>
       <c r="E8">
-        <v>13.14354116988633</v>
+        <v>13.14280720063779</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.44021954383395</v>
+        <v>61.96062398971923</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.42622262765356</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.76337509590313</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.76134998603044</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.27209540794539</v>
+        <v>30.26232732947647</v>
       </c>
       <c r="C9">
-        <v>18.78752320665476</v>
+        <v>18.77664300596987</v>
       </c>
       <c r="D9">
-        <v>8.522646581593909</v>
+        <v>8.521357513605203</v>
       </c>
       <c r="E9">
-        <v>15.65633538271225</v>
+        <v>15.65472517741378</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.93381920687328</v>
+        <v>72.81568146324391</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.9110525702653</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.76629036096023</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.76249545820963</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.85882388377682</v>
+        <v>33.84446458875207</v>
       </c>
       <c r="C10">
-        <v>21.06931358955551</v>
+        <v>21.05413560518559</v>
       </c>
       <c r="D10">
-        <v>9.480863283163679</v>
+        <v>9.478882847579753</v>
       </c>
       <c r="E10">
-        <v>17.45419556143757</v>
+        <v>17.45156020522205</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.56331821712128</v>
+        <v>80.66350887066048</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>80.66350887066048</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.92410809137954</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.91844762738066</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.50503668273294</v>
+        <v>35.48809418720393</v>
       </c>
       <c r="C11">
-        <v>22.12686161499661</v>
+        <v>22.10932580286105</v>
       </c>
       <c r="D11">
-        <v>9.916916517210259</v>
+        <v>9.914528956285357</v>
       </c>
       <c r="E11">
-        <v>18.2754766872801</v>
+        <v>18.27221230944653</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.11812556092417</v>
+        <v>84.2626173126225</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>84.26261731269503</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.91295604027006</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.90620883035468</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.13412449447573</v>
+        <v>36.11610033013731</v>
       </c>
       <c r="C12">
-        <v>22.53287213472372</v>
+        <v>22.51435903063106</v>
       </c>
       <c r="D12">
-        <v>10.08289185894698</v>
+        <v>10.08033045759917</v>
       </c>
       <c r="E12">
-        <v>18.58864726502941</v>
+        <v>18.5851096264977</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.50426522612496</v>
+        <v>85.63671614076878</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>85.63671614076883</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.29060072386606</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22.28339113215215</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.99831352652556</v>
+        <v>35.9805276229735</v>
       </c>
       <c r="C13">
-        <v>22.44512952095011</v>
+        <v>22.42683122245708</v>
       </c>
       <c r="D13">
-        <v>10.04709175554538</v>
+        <v>10.04456880771261</v>
       </c>
       <c r="E13">
-        <v>18.52107048623169</v>
+        <v>18.51759351665302</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.20510674383621</v>
+        <v>85.34014078185943</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>85.34014078185945</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.20908347592029</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22.2019760927392</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.55665239730675</v>
+        <v>35.53962323198764</v>
       </c>
       <c r="C14">
-        <v>22.16013404402562</v>
+        <v>22.14251972257891</v>
       </c>
       <c r="D14">
-        <v>9.93054852510935</v>
+        <v>9.92814710514053</v>
       </c>
       <c r="E14">
-        <v>18.30118614549407</v>
+        <v>18.29790007930835</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.23189485557735</v>
+        <v>84.37539122840974</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>84.37539122840978</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.94394604295698</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.93716193945595</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.28699428962128</v>
+        <v>35.27041393001975</v>
       </c>
       <c r="C15">
-        <v>21.9863856338988</v>
+        <v>21.96917825662748</v>
       </c>
       <c r="D15">
-        <v>9.859302945703982</v>
+        <v>9.856973157477276</v>
       </c>
       <c r="E15">
-        <v>18.16684320326703</v>
+        <v>18.1636690491979</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.63745290975017</v>
+        <v>83.7861648739357</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>83.7861648739357</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.78203409240688</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>21.77544073976114</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.75181360502521</v>
+        <v>33.73761076085898</v>
       </c>
       <c r="C16">
-        <v>21.00080558371408</v>
+        <v>20.98577159988218</v>
       </c>
       <c r="D16">
-        <v>9.45243387796147</v>
+        <v>9.450477712821757</v>
       </c>
       <c r="E16">
-        <v>17.400722242288</v>
+        <v>17.39812385696849</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.33533171373671</v>
+        <v>80.42942731360695</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>80.42942731365417</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.85979726869722</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.85420180083321</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.81596094307938</v>
+        <v>32.80307148718315</v>
       </c>
       <c r="C17">
-        <v>20.4028508151427</v>
+        <v>20.38903178738641</v>
       </c>
       <c r="D17">
-        <v>9.203379537826478</v>
+        <v>9.201625253715079</v>
       </c>
       <c r="E17">
-        <v>16.93263187721187</v>
+        <v>16.93033847634953</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.34212581616539</v>
+        <v>78.38187675826677</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>78.38187675826742</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.29719909995599</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.29214541594622</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.27878349432648</v>
+        <v>32.26660550119041</v>
       </c>
       <c r="C18">
-        <v>20.06055628419796</v>
+        <v>20.04740027736069</v>
       </c>
       <c r="D18">
-        <v>9.0600822143077</v>
+        <v>9.058435840927602</v>
       </c>
       <c r="E18">
-        <v>16.66359439588347</v>
+        <v>16.6614620484053</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.19869612241608</v>
+        <v>77.20638281033548</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>77.20638281033548</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.97412703893574</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.96936390504915</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.09700294581525</v>
+        <v>32.08505903846731</v>
       </c>
       <c r="C19">
-        <v>19.94487332901417</v>
+        <v>19.93193627914538</v>
       </c>
       <c r="D19">
-        <v>9.011535059663537</v>
+        <v>9.009923959309996</v>
       </c>
       <c r="E19">
-        <v>16.57249434259713</v>
+        <v>16.57041432258709</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.81189666232807</v>
+        <v>76.80858412936503</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>76.80858412936499</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.8647756449902</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.86010764771377</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.9154480060217</v>
+        <v>32.90242347322058</v>
       </c>
       <c r="C20">
-        <v>20.46631831162831</v>
+        <v>20.452373806625</v>
       </c>
       <c r="D20">
-        <v>9.22989162511456</v>
+        <v>9.228116735889232</v>
       </c>
       <c r="E20">
-        <v>16.98243029910656</v>
+        <v>16.98010598480949</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.55395256309596</v>
+        <v>78.59957105737404</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>78.59957105737419</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.3570216375898</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.35191255483308</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.68618881433652</v>
+        <v>35.66894052732551</v>
       </c>
       <c r="C21">
-        <v>22.24366694659929</v>
+        <v>22.22585429568874</v>
       </c>
       <c r="D21">
-        <v>9.96474888931939</v>
+        <v>9.962312375295193</v>
       </c>
       <c r="E21">
-        <v>18.36569621094844</v>
+        <v>18.36235514904709</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.51738426059168</v>
+        <v>84.65838860960226</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>84.65838860960228</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.0217157117855</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>22.01483821106634</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.53305033423631</v>
+        <v>37.51240876532424</v>
       </c>
       <c r="C22">
-        <v>23.43967082192734</v>
+        <v>23.41881382662874</v>
       </c>
       <c r="D22">
-        <v>10.4506164511188</v>
+        <v>10.44762694001815</v>
       </c>
       <c r="E22">
-        <v>19.28367214504704</v>
+        <v>19.27945108834891</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.58257319921734</v>
+        <v>88.68887859639825</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>88.68887859667485</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.12993409905094</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>23.12158881837922</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.54247273774012</v>
+        <v>36.52371588143554</v>
       </c>
       <c r="C23">
-        <v>22.79699741421096</v>
+        <v>22.7778253196328</v>
       </c>
       <c r="D23">
-        <v>10.19042749168276</v>
+        <v>10.18774728347558</v>
       </c>
       <c r="E23">
-        <v>18.79172516184208</v>
+        <v>18.78799930529087</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.40344399979068</v>
+        <v>86.52817903015148</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>86.52817903015388</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.53566652097127</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>22.52814137227934</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.87046748864027</v>
+        <v>32.85750415780315</v>
       </c>
       <c r="C24">
-        <v>20.43762024482263</v>
+        <v>20.42373257678562</v>
       </c>
       <c r="D24">
-        <v>9.217905919527476</v>
+        <v>9.216140370844291</v>
       </c>
       <c r="E24">
-        <v>16.95991631982346</v>
+        <v>16.95760602521022</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.45817841152505</v>
+        <v>78.50114675258516</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>78.50114675258506</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.32997485648322</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.32489088357554</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.94595399108961</v>
+        <v>28.9375852001132</v>
       </c>
       <c r="C25">
-        <v>17.95077630936491</v>
+        <v>17.94124326744356</v>
       </c>
       <c r="D25">
-        <v>8.165683968088164</v>
+        <v>8.164595994410755</v>
       </c>
       <c r="E25">
-        <v>14.98877493356625</v>
+        <v>14.98744988734522</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.12332516730065</v>
+        <v>69.91632080093265</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>70.1030857176434</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.96718826573251</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>17.96394386961456</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.99335934190183</v>
+        <v>39.69378378338686</v>
       </c>
       <c r="C2">
-        <v>16.09587364253747</v>
+        <v>32.7687483455152</v>
       </c>
       <c r="D2">
-        <v>7.366810871705061</v>
+        <v>12.2230131287876</v>
       </c>
       <c r="E2">
-        <v>13.49919059251182</v>
+        <v>13.22035738414563</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.48966513284159</v>
+        <v>2.068078570274855</v>
       </c>
       <c r="H2">
-        <v>63.89802309842544</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.851454662222171</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.18637064188167</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>20.54269454282506</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.93280820696359</v>
+        <v>36.97494413432642</v>
       </c>
       <c r="C3">
-        <v>14.81228042320227</v>
+        <v>30.43169938413744</v>
       </c>
       <c r="D3">
-        <v>6.804521839949254</v>
+        <v>11.66596657932423</v>
       </c>
       <c r="E3">
-        <v>12.45324778767936</v>
+        <v>12.63031019765262</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.01526677090301</v>
+        <v>2.095353679069965</v>
       </c>
       <c r="H3">
-        <v>59.5969021775418</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.784127971878562</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.93961815176727</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>20.17117238889837</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.62840253134257</v>
+        <v>35.29747617161921</v>
       </c>
       <c r="C4">
-        <v>14.00246275898973</v>
+        <v>28.98771578402186</v>
       </c>
       <c r="D4">
-        <v>6.446874023456749</v>
+        <v>11.33579635891667</v>
       </c>
       <c r="E4">
-        <v>11.84004834952158</v>
+        <v>12.28166805596062</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.19751926325242</v>
+        <v>2.111949241233422</v>
       </c>
       <c r="H4">
-        <v>56.89817552160977</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.749748610030676</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.14899299400384</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>19.95286522530497</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.0861312559941</v>
+        <v>34.61083636635539</v>
       </c>
       <c r="C5">
-        <v>13.66633192137404</v>
+        <v>28.39600430114045</v>
       </c>
       <c r="D5">
-        <v>6.297795071290145</v>
+        <v>11.20392588569539</v>
       </c>
       <c r="E5">
-        <v>11.59699330344002</v>
+        <v>12.14267973873568</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.03028546712491</v>
+        <v>2.118701761903711</v>
       </c>
       <c r="H5">
-        <v>55.7828196023479</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.737321333148851</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.81995088078481</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>19.86606079781006</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.99541820171058</v>
+        <v>34.49661446308133</v>
       </c>
       <c r="C6">
-        <v>13.61013010169793</v>
+        <v>28.29753140769465</v>
       </c>
       <c r="D6">
-        <v>6.2728334731529</v>
+        <v>11.18218345474041</v>
       </c>
       <c r="E6">
-        <v>11.55644097122201</v>
+        <v>12.11977908578766</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.83529147147589</v>
+        <v>2.119823103953547</v>
       </c>
       <c r="H6">
-        <v>55.59664997421959</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.735348992493247</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.76488529373655</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>19.85176935449395</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62113367749913</v>
+        <v>35.28822930626372</v>
       </c>
       <c r="C7">
-        <v>13.99795518785958</v>
+        <v>28.97975005821983</v>
       </c>
       <c r="D7">
-        <v>6.444877258012768</v>
+        <v>11.33400740261731</v>
       </c>
       <c r="E7">
-        <v>11.83678329398685</v>
+        <v>12.27978149566042</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.1818557687617</v>
+        <v>2.112040316928953</v>
       </c>
       <c r="H7">
-        <v>56.88319772398049</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.749574804997513</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.14458383349198</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>19.95168618065415</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.29045724559574</v>
+        <v>38.75723541505162</v>
       </c>
       <c r="C8">
-        <v>15.65735355333158</v>
+        <v>31.96406497400136</v>
       </c>
       <c r="D8">
-        <v>7.175366451530595</v>
+        <v>12.02826396851246</v>
       </c>
       <c r="E8">
-        <v>13.14280720063779</v>
+        <v>13.01383076371329</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.96062398971923</v>
+        <v>2.077533021834565</v>
       </c>
       <c r="H8">
-        <v>62.42622262765356</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.826685666028924</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.76134998603044</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>20.41235133584529</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.26232732947647</v>
+        <v>45.89111285589676</v>
       </c>
       <c r="C9">
-        <v>18.77664300596987</v>
+        <v>37.85886694989173</v>
       </c>
       <c r="D9">
-        <v>8.521357513605203</v>
+        <v>13.50503228474772</v>
       </c>
       <c r="E9">
-        <v>15.65472517741378</v>
+        <v>14.58529728479078</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.81568146324391</v>
+        <v>2.00701705942558</v>
       </c>
       <c r="H9">
-        <v>72.9110525702653</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.042725185157047</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.76249545820963</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>21.41192175154084</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.84446458875207</v>
+        <v>51.38172871574821</v>
       </c>
       <c r="C10">
-        <v>21.05413560518559</v>
+        <v>42.4524925054001</v>
       </c>
       <c r="D10">
-        <v>9.478882847579753</v>
+        <v>14.70859967162204</v>
       </c>
       <c r="E10">
-        <v>17.45156020522205</v>
+        <v>15.87374516620898</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.66350887066048</v>
+        <v>1.950183427337935</v>
       </c>
       <c r="H10">
-        <v>80.66350887066048</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.259670000757178</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.91844762738066</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>22.24193454560436</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.48809418720393</v>
+        <v>53.98421072385074</v>
       </c>
       <c r="C11">
-        <v>22.10932580286105</v>
+        <v>44.640188257521</v>
       </c>
       <c r="D11">
-        <v>9.914528956285357</v>
+        <v>15.30194632307987</v>
       </c>
       <c r="E11">
-        <v>18.27221230944653</v>
+        <v>16.51108503015343</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>84.2626173126225</v>
+        <v>1.921996663961895</v>
       </c>
       <c r="H11">
-        <v>84.26261731269503</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.377914784070835</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.90620883035468</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>22.65431022562614</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.11610033013731</v>
+        <v>54.99595659247788</v>
       </c>
       <c r="C12">
-        <v>22.51435903063106</v>
+        <v>45.49265396844964</v>
       </c>
       <c r="D12">
-        <v>10.08033045759917</v>
+        <v>15.53618753922176</v>
       </c>
       <c r="E12">
-        <v>18.5851096264977</v>
+        <v>16.76306143044098</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>85.63671614076878</v>
+        <v>1.910812123212216</v>
       </c>
       <c r="H12">
-        <v>85.63671614076883</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.426472613172432</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.28339113215215</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>22.81745559382344</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.9805276229735</v>
+        <v>54.77664420242749</v>
       </c>
       <c r="C13">
-        <v>22.42683122245708</v>
+        <v>45.30777082795209</v>
       </c>
       <c r="D13">
-        <v>10.04456880771261</v>
+        <v>15.48524829708307</v>
       </c>
       <c r="E13">
-        <v>18.51759351665302</v>
+        <v>16.70824796683684</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>85.34014078185943</v>
+        <v>1.913247500168948</v>
       </c>
       <c r="H13">
-        <v>85.34014078185945</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.415825328744861</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.2019760927392</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>22.78196481074023</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.53962323198764</v>
+        <v>54.06683515796141</v>
       </c>
       <c r="C14">
-        <v>22.14251972257891</v>
+        <v>44.70976240012886</v>
       </c>
       <c r="D14">
-        <v>9.92814710514053</v>
+        <v>15.32100286093722</v>
       </c>
       <c r="E14">
-        <v>18.29790007930835</v>
+        <v>16.53157672196372</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>84.37539122840974</v>
+        <v>1.921088094780466</v>
       </c>
       <c r="H14">
-        <v>84.37539122840978</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.381826431165924</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.93716193945595</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>22.66757695867316</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.27041393001975</v>
+        <v>53.63591063603237</v>
       </c>
       <c r="C15">
-        <v>21.96917825662748</v>
+        <v>44.34698328353786</v>
       </c>
       <c r="D15">
-        <v>9.856973157477276</v>
+        <v>15.22175863796128</v>
       </c>
       <c r="E15">
-        <v>18.1636690491979</v>
+        <v>16.42487337155742</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.7861648739357</v>
+        <v>1.925817342015703</v>
       </c>
       <c r="H15">
-        <v>83.7861648739357</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.361531143420994</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.77544073976114</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>22.59849822175249</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.73761076085898</v>
+        <v>51.21458612837976</v>
       </c>
       <c r="C16">
-        <v>20.98577159988218</v>
+        <v>42.31222913745241</v>
       </c>
       <c r="D16">
-        <v>9.450477712821757</v>
+        <v>14.67096355906807</v>
       </c>
       <c r="E16">
-        <v>17.39812385696849</v>
+        <v>15.83336449518128</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.42942731360695</v>
+        <v>1.951965534634973</v>
       </c>
       <c r="H16">
-        <v>80.42942731365417</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.252407977052093</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.85420180083321</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>22.21583234243393</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.80307148718315</v>
+        <v>49.76231704873841</v>
       </c>
       <c r="C17">
-        <v>20.38903178738641</v>
+        <v>41.09467577391946</v>
       </c>
       <c r="D17">
-        <v>9.201625253715079</v>
+        <v>14.34646316413105</v>
       </c>
       <c r="E17">
-        <v>16.93033847634953</v>
+        <v>15.48543419411701</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>78.38187675826677</v>
+        <v>1.967309741960891</v>
       </c>
       <c r="H17">
-        <v>78.38187675826742</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.191023378591384</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.29214541594622</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>21.99111566695658</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.26660550119041</v>
+        <v>48.93597320148129</v>
       </c>
       <c r="C18">
-        <v>20.04740027736069</v>
+        <v>40.40279875622975</v>
       </c>
       <c r="D18">
-        <v>9.058435840927602</v>
+        <v>14.16389320082234</v>
       </c>
       <c r="E18">
-        <v>16.6614620484053</v>
+        <v>15.28986993715541</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.20638281033548</v>
+        <v>1.975929762118226</v>
       </c>
       <c r="H18">
-        <v>77.20638281033548</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.157479992823765</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.96936390504915</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>21.86498128416869</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.08505903846731</v>
+        <v>48.657472345656</v>
       </c>
       <c r="C19">
-        <v>19.93193627914538</v>
+        <v>40.16976269605694</v>
       </c>
       <c r="D19">
-        <v>9.009923959309996</v>
+        <v>14.10271125072907</v>
       </c>
       <c r="E19">
-        <v>16.57041432258709</v>
+        <v>15.22436433472713</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.80858412936503</v>
+        <v>1.978817065571608</v>
       </c>
       <c r="H19">
-        <v>76.80858412936499</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.146403377863789</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.86010764771377</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>21.82276420853746</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.90242347322058</v>
+        <v>49.91592273312141</v>
       </c>
       <c r="C20">
-        <v>20.452373806625</v>
+        <v>41.22335807894937</v>
       </c>
       <c r="D20">
-        <v>9.228116735889232</v>
+        <v>14.38056854601189</v>
       </c>
       <c r="E20">
-        <v>16.98010598480949</v>
+        <v>15.52198215824624</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.59957105737404</v>
+        <v>1.965698596856413</v>
       </c>
       <c r="H20">
-        <v>78.59957105737419</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.197369845000239</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.35191255483308</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>22.01470329693839</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.66894052732551</v>
+        <v>54.27449056041036</v>
       </c>
       <c r="C21">
-        <v>22.22585429568874</v>
+        <v>44.88465244196718</v>
       </c>
       <c r="D21">
-        <v>9.962312375295193</v>
+        <v>15.36895420565958</v>
       </c>
       <c r="E21">
-        <v>18.36235514904709</v>
+        <v>16.58314533235531</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>84.65838860960226</v>
+        <v>1.91880086777356</v>
       </c>
       <c r="H21">
-        <v>84.65838860960228</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.391699734902906</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.01483821106634</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>22.70096451479017</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.51240876532424</v>
+        <v>57.28683442523601</v>
       </c>
       <c r="C22">
-        <v>23.41881382662874</v>
+        <v>47.42723959320644</v>
       </c>
       <c r="D22">
-        <v>10.44762694001815</v>
+        <v>16.07352464852748</v>
       </c>
       <c r="E22">
-        <v>19.27945108834891</v>
+        <v>17.34185087737134</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>88.68887859639825</v>
+        <v>1.885004894191658</v>
       </c>
       <c r="H22">
-        <v>88.68887859667485</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.541670262749669</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.12158881837922</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>23.19210473009218</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.52371588143554</v>
+        <v>55.65848953457932</v>
       </c>
       <c r="C23">
-        <v>22.7778253196328</v>
+        <v>46.05151117579071</v>
       </c>
       <c r="D23">
-        <v>10.18774728347558</v>
+        <v>15.69061356469553</v>
       </c>
       <c r="E23">
-        <v>18.78799930529087</v>
+        <v>16.92929135035978</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>86.52817903015148</v>
+        <v>1.903417865834593</v>
       </c>
       <c r="H23">
-        <v>86.52817903015388</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.459044017338704</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.52814137227934</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>22.92508311399303</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.85750415780315</v>
+        <v>49.84645160730892</v>
       </c>
       <c r="C24">
-        <v>20.42373257678562</v>
+        <v>41.16515620732831</v>
       </c>
       <c r="D24">
-        <v>9.216140370844291</v>
+        <v>14.36513727238728</v>
       </c>
       <c r="E24">
-        <v>16.95760602521022</v>
+        <v>15.5054451309478</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.50114675258516</v>
+        <v>1.966427611694735</v>
       </c>
       <c r="H24">
-        <v>78.50114675258506</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.194495229406362</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.32489088357554</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>22.00402993616769</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.9375852001132</v>
+        <v>43.91197486052669</v>
       </c>
       <c r="C25">
-        <v>17.94124326744356</v>
+        <v>36.22101414146814</v>
       </c>
       <c r="D25">
-        <v>8.164595994410755</v>
+        <v>13.08940400218513</v>
       </c>
       <c r="E25">
-        <v>14.98744988734522</v>
+        <v>14.14185027973047</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.91632080093265</v>
+        <v>2.026671978499931</v>
       </c>
       <c r="H25">
-        <v>70.1030857176434</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.97576493373058</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.96394386961456</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.1281445848952</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.69378378338686</v>
+        <v>24.49567610495414</v>
       </c>
       <c r="C2">
-        <v>32.7687483455152</v>
+        <v>17.79787528810768</v>
       </c>
       <c r="D2">
-        <v>12.2230131287876</v>
+        <v>12.20002637631078</v>
       </c>
       <c r="E2">
-        <v>13.22035738414563</v>
+        <v>13.19700786839004</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.068078570274855</v>
+        <v>2.08007309401134</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.851454662222171</v>
+        <v>5.865960332600037</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.54269454282506</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.90924125851582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.97494413432642</v>
+        <v>22.81390935592814</v>
       </c>
       <c r="C3">
-        <v>30.43169938413744</v>
+        <v>16.60995225242746</v>
       </c>
       <c r="D3">
-        <v>11.66596657932423</v>
+        <v>11.67418193689813</v>
       </c>
       <c r="E3">
-        <v>12.63031019765262</v>
+        <v>12.63828435728236</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.095353679069965</v>
+        <v>2.088477918700121</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.784127971878562</v>
+        <v>5.774199531903272</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.17117238889837</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.6377418058732</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.29747617161921</v>
+        <v>21.7228750487502</v>
       </c>
       <c r="C4">
-        <v>28.98771578402186</v>
+        <v>15.8393938258416</v>
       </c>
       <c r="D4">
-        <v>11.33579635891667</v>
+        <v>11.34927094670475</v>
       </c>
       <c r="E4">
-        <v>12.28166805596062</v>
+        <v>12.29377936557575</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.111949241233422</v>
+        <v>2.0937660752925</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.749748610030676</v>
+        <v>5.720952642330852</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.95286522530497</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.49904709748218</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.61083636635539</v>
+        <v>21.26343694891888</v>
       </c>
       <c r="C5">
-        <v>28.39600430114045</v>
+        <v>15.51495548995007</v>
       </c>
       <c r="D5">
-        <v>11.20392588569539</v>
+        <v>11.21651241936351</v>
       </c>
       <c r="E5">
-        <v>12.14267973873568</v>
+        <v>12.15319201916228</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118701761903711</v>
+        <v>2.095954763213273</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.737321333148851</v>
+        <v>5.700025053692634</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.86606079781006</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.4492945606459</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.49661446308133</v>
+        <v>21.18624768316736</v>
       </c>
       <c r="C6">
-        <v>28.29753140769465</v>
+        <v>15.46045073170771</v>
       </c>
       <c r="D6">
-        <v>11.18218345474041</v>
+        <v>11.19445162357438</v>
       </c>
       <c r="E6">
-        <v>12.11977908578766</v>
+        <v>12.12984086726024</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.119823103953547</v>
+        <v>2.096320275892077</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.735348992493247</v>
+        <v>5.696596383080356</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.85176935449395</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.44143339312469</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.28822930626372</v>
+        <v>21.71673914772711</v>
       </c>
       <c r="C7">
-        <v>28.97975005821983</v>
+        <v>15.83506066233986</v>
       </c>
       <c r="D7">
-        <v>11.33400740261731</v>
+        <v>11.34748172849858</v>
       </c>
       <c r="E7">
-        <v>12.27978149566042</v>
+        <v>12.29188392504096</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.112040316928953</v>
+        <v>2.093795454070564</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.749574804997513</v>
+        <v>5.720667293985095</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.95168618065415</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.49834909978365</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>38.75723541505162</v>
+        <v>23.92784146300302</v>
       </c>
       <c r="C8">
-        <v>31.96406497400136</v>
+        <v>17.39677495496625</v>
       </c>
       <c r="D8">
-        <v>12.02826396851246</v>
+        <v>12.01922633501291</v>
       </c>
       <c r="E8">
-        <v>13.01383076371329</v>
+        <v>13.00475163852305</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.077533021834565</v>
+        <v>2.082945628789337</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.826685666028924</v>
+        <v>5.833674694006284</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.41235133584529</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.80965622569766</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45.89111285589676</v>
+        <v>27.80693879529604</v>
       </c>
       <c r="C9">
-        <v>37.85886694989173</v>
+        <v>20.13654451185446</v>
       </c>
       <c r="D9">
-        <v>13.50503228474772</v>
+        <v>13.31466184867585</v>
       </c>
       <c r="E9">
-        <v>14.58529728479078</v>
+        <v>14.38529521350036</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.00701705942558</v>
+        <v>2.062600567552822</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.042725185157047</v>
+        <v>6.080166990135258</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.41192175154084</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>19.65354780147228</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>51.38172871574821</v>
+        <v>30.38818624039204</v>
       </c>
       <c r="C10">
-        <v>42.4524925054001</v>
+        <v>21.95871680178363</v>
       </c>
       <c r="D10">
-        <v>14.70859967162204</v>
+        <v>14.24746425348531</v>
       </c>
       <c r="E10">
-        <v>15.87374516620898</v>
+        <v>15.38312024571834</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.950183427337935</v>
+        <v>2.048097539130705</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.259670000757178</v>
+        <v>6.276966535653774</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.24193454560436</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>20.42973385341723</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53.98421072385074</v>
+        <v>31.5064199830637</v>
       </c>
       <c r="C11">
-        <v>44.640188257521</v>
+        <v>22.74773630394855</v>
       </c>
       <c r="D11">
-        <v>15.30194632307987</v>
+        <v>14.66707762621025</v>
       </c>
       <c r="E11">
-        <v>16.51108503015343</v>
+        <v>15.83284433449376</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.921996663961895</v>
+        <v>2.04156551708396</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.377914784070835</v>
+        <v>6.370055610986318</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.65431022562614</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>20.81941108008665</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54.99595659247788</v>
+        <v>31.92201978753256</v>
       </c>
       <c r="C12">
-        <v>45.49265396844964</v>
+        <v>23.04091491518841</v>
       </c>
       <c r="D12">
-        <v>15.53618753922176</v>
+        <v>14.82527938478048</v>
       </c>
       <c r="E12">
-        <v>16.76306143044098</v>
+        <v>16.00252668584077</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.910812123212216</v>
+        <v>2.039098562557731</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.426472613172432</v>
+        <v>6.405834426234547</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.81745559382344</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>20.9724398953211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>54.77664420242749</v>
+        <v>31.83285875644066</v>
       </c>
       <c r="C13">
-        <v>45.30777082795209</v>
+        <v>22.97802076549049</v>
       </c>
       <c r="D13">
-        <v>15.48524829708307</v>
+        <v>14.79123876767962</v>
       </c>
       <c r="E13">
-        <v>16.70824796683684</v>
+        <v>15.96600997627216</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.913247500168948</v>
+        <v>2.039629621177747</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.415825328744861</v>
+        <v>6.398105043528425</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.78196481074023</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>20.93923597937306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54.06683515796141</v>
+        <v>31.54076777393204</v>
       </c>
       <c r="C14">
-        <v>44.70976240012886</v>
+        <v>22.77196784277861</v>
       </c>
       <c r="D14">
-        <v>15.32100286093722</v>
+        <v>14.68010694249781</v>
       </c>
       <c r="E14">
-        <v>16.53157672196372</v>
+        <v>15.84681657629757</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.921088094780466</v>
+        <v>2.041362444716829</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.381826431165924</v>
+        <v>6.372988470106759</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.66757695867316</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>20.83189011149989</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>53.63591063603237</v>
+        <v>31.36083737908092</v>
       </c>
       <c r="C15">
-        <v>44.34698328353786</v>
+        <v>22.64502851182636</v>
       </c>
       <c r="D15">
-        <v>15.22175863796128</v>
+        <v>14.61194472269981</v>
       </c>
       <c r="E15">
-        <v>16.42487337155742</v>
+        <v>15.77372670906151</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.925817342015703</v>
+        <v>2.042424616710548</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.361531143420994</v>
+        <v>6.357673135437627</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.59849822175249</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>20.76685569543365</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>51.21458612837976</v>
+        <v>30.31399715407176</v>
       </c>
       <c r="C16">
-        <v>42.31222913745241</v>
+        <v>21.90636064595234</v>
       </c>
       <c r="D16">
-        <v>14.67096355906807</v>
+        <v>14.2199443448805</v>
       </c>
       <c r="E16">
-        <v>15.83336449518128</v>
+        <v>15.35364332935582</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.951965534634973</v>
+        <v>2.048525504262601</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.252407977052093</v>
+        <v>6.27095589738714</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.21583234243393</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>20.40502128930367</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49.76231704873841</v>
+        <v>29.65759215245737</v>
       </c>
       <c r="C17">
-        <v>41.09467577391946</v>
+        <v>21.44308309145604</v>
       </c>
       <c r="D17">
-        <v>14.34646316413105</v>
+        <v>13.97823365914913</v>
       </c>
       <c r="E17">
-        <v>15.48543419411701</v>
+        <v>15.09484131231705</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.967309741960891</v>
+        <v>2.05228304849278</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.191023378591384</v>
+        <v>6.218680320478419</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.99111566695658</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>20.19256454529426</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48.93597320148129</v>
+        <v>29.2747626138704</v>
       </c>
       <c r="C18">
-        <v>40.40279875622975</v>
+        <v>21.17285439001231</v>
       </c>
       <c r="D18">
-        <v>14.16389320082234</v>
+        <v>13.83876278214926</v>
       </c>
       <c r="E18">
-        <v>15.28986993715541</v>
+        <v>14.94558972705946</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.975929762118226</v>
+        <v>2.054450638405665</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.157479992823765</v>
+        <v>6.188947114537546</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.86498128416869</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.07379673980117</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48.657472345656</v>
+        <v>29.14422994442082</v>
       </c>
       <c r="C19">
-        <v>40.16976269605694</v>
+        <v>21.08070937431829</v>
       </c>
       <c r="D19">
-        <v>14.10271125072907</v>
+        <v>13.79146485915076</v>
       </c>
       <c r="E19">
-        <v>15.22436433472713</v>
+        <v>14.89498875774807</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.978817065571608</v>
+        <v>2.055185719203238</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.146403377863789</v>
+        <v>6.178936973094402</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.82276420853746</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20.03416713700228</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49.91592273312141</v>
+        <v>29.72801292863614</v>
       </c>
       <c r="C20">
-        <v>41.22335807894937</v>
+        <v>21.49278839574088</v>
       </c>
       <c r="D20">
-        <v>14.38056854601189</v>
+        <v>14.00401047656606</v>
       </c>
       <c r="E20">
-        <v>15.52198215824624</v>
+        <v>15.12243237443957</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.965698596856413</v>
+        <v>2.051882413880954</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.197369845000239</v>
+        <v>6.224210444043108</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.01470329693839</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>20.21482427558898</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54.27449056041036</v>
+        <v>31.62677337860309</v>
       </c>
       <c r="C21">
-        <v>44.88465244196718</v>
+        <v>22.83264162055096</v>
       </c>
       <c r="D21">
-        <v>15.36895420565958</v>
+        <v>14.7127679606131</v>
       </c>
       <c r="E21">
-        <v>16.58314533235531</v>
+        <v>15.88184332074981</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.91880086777356</v>
+        <v>2.040853317989133</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.391699734902906</v>
+        <v>6.380351342550256</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.70096451479017</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>20.86327018769799</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57.28683442523601</v>
+        <v>32.82206578785043</v>
       </c>
       <c r="C22">
-        <v>47.42723959320644</v>
+        <v>23.67570715076377</v>
       </c>
       <c r="D22">
-        <v>16.07352464852748</v>
+        <v>15.17193315872282</v>
       </c>
       <c r="E22">
-        <v>17.34185087737134</v>
+        <v>16.37457279940928</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.885004894191658</v>
+        <v>2.033681974013684</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.541670262749669</v>
+        <v>6.485486433347128</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.19210473009218</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>21.31902895031103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>55.65848953457932</v>
+        <v>32.1882230691544</v>
       </c>
       <c r="C23">
-        <v>46.05151117579071</v>
+        <v>23.22868414817892</v>
       </c>
       <c r="D23">
-        <v>15.69061356469553</v>
+        <v>14.92723688804261</v>
       </c>
       <c r="E23">
-        <v>16.92929135035978</v>
+        <v>16.11191929214544</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.903417865834593</v>
+        <v>2.037507107510942</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.459044017338704</v>
+        <v>6.429085051577105</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.92508311399303</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>21.07278851457378</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.84645160730892</v>
+        <v>29.69619269727282</v>
       </c>
       <c r="C24">
-        <v>41.16515620732831</v>
+        <v>21.47032873604106</v>
       </c>
       <c r="D24">
-        <v>14.36513727238728</v>
+        <v>13.99235835859959</v>
       </c>
       <c r="E24">
-        <v>15.5054451309478</v>
+        <v>15.10995989536699</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.966427611694735</v>
+        <v>2.052063517754688</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.194495229406362</v>
+        <v>6.221709277322041</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.00402993616769</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>20.20475015022863</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.91197486052669</v>
+        <v>26.80547295380149</v>
       </c>
       <c r="C25">
-        <v>36.22101414146814</v>
+        <v>19.42932784686385</v>
       </c>
       <c r="D25">
-        <v>13.08940400218513</v>
+        <v>12.96723515616694</v>
       </c>
       <c r="E25">
-        <v>14.14185027973047</v>
+        <v>14.01439584165976</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.026671978499931</v>
+        <v>2.068016779088299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.97576493373058</v>
+        <v>6.010769512013459</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.1281445848952</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19.39876027369952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49567610495414</v>
+        <v>18.05649126858622</v>
       </c>
       <c r="C2">
-        <v>17.79787528810768</v>
+        <v>11.11937511077658</v>
       </c>
       <c r="D2">
-        <v>12.20002637631078</v>
+        <v>14.9809489550595</v>
       </c>
       <c r="E2">
-        <v>13.19700786839004</v>
+        <v>16.39770022460419</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.08007309401134</v>
+        <v>3.667884810023161</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.865960332600037</v>
+        <v>9.361415295849442</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.90924125851582</v>
+        <v>27.33609796950253</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.81390935592814</v>
+        <v>17.45358153290566</v>
       </c>
       <c r="C3">
-        <v>16.60995225242746</v>
+        <v>10.55984671663852</v>
       </c>
       <c r="D3">
-        <v>11.67418193689813</v>
+        <v>14.92190621030298</v>
       </c>
       <c r="E3">
-        <v>12.63828435728236</v>
+        <v>16.33920153341992</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.088477918700121</v>
+        <v>3.670909957096306</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.774199531903272</v>
+        <v>9.371251528264512</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.6377418058732</v>
+        <v>27.43216004437329</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.7228750487502</v>
+        <v>17.07496380895604</v>
       </c>
       <c r="C4">
-        <v>15.8393938258416</v>
+        <v>10.20107496125499</v>
       </c>
       <c r="D4">
-        <v>11.34927094670475</v>
+        <v>14.8891232366978</v>
       </c>
       <c r="E4">
-        <v>12.29377936557575</v>
+        <v>16.30711106855635</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.0937660752925</v>
+        <v>3.672863441997519</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.720952642330852</v>
+        <v>9.378787643960573</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.49904709748218</v>
+        <v>27.49997969945234</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.26343694891888</v>
+        <v>16.91878789247725</v>
       </c>
       <c r="C5">
-        <v>15.51495548995007</v>
+        <v>10.0512012370221</v>
       </c>
       <c r="D5">
-        <v>11.21651241936351</v>
+        <v>14.87664525317529</v>
       </c>
       <c r="E5">
-        <v>12.15319201916228</v>
+        <v>16.29500479929133</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.095954763213273</v>
+        <v>3.673683738012624</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.700025053692634</v>
+        <v>9.382234851908871</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.4492945606459</v>
+        <v>27.52982527496845</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.18624768316736</v>
+        <v>16.89274829469804</v>
       </c>
       <c r="C6">
-        <v>15.46045073170771</v>
+        <v>10.02609816629172</v>
       </c>
       <c r="D6">
-        <v>11.19445162357438</v>
+        <v>14.87462676258906</v>
       </c>
       <c r="E6">
-        <v>12.12984086726024</v>
+        <v>16.29305341854729</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.096320275892077</v>
+        <v>3.673821413832912</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.696596383080356</v>
+        <v>9.382829972329398</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.44143339312469</v>
+        <v>27.53491408978265</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.71673914772711</v>
+        <v>17.07286487975987</v>
       </c>
       <c r="C7">
-        <v>15.83506066233986</v>
+        <v>10.1990683512066</v>
       </c>
       <c r="D7">
-        <v>11.34748172849858</v>
+        <v>14.88895137479593</v>
       </c>
       <c r="E7">
-        <v>12.29188392504096</v>
+        <v>16.30694385815608</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.093795454070564</v>
+        <v>3.672874406555283</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.720667293985095</v>
+        <v>9.378832611347953</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.49834909978365</v>
+        <v>27.50037328367503</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.92784146300302</v>
+        <v>17.85049116449869</v>
       </c>
       <c r="C8">
-        <v>17.39677495496625</v>
+        <v>10.92969369602329</v>
       </c>
       <c r="D8">
-        <v>12.01922633501291</v>
+        <v>14.95987660127699</v>
       </c>
       <c r="E8">
-        <v>13.00475163852305</v>
+        <v>16.37674070194101</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.082945628789337</v>
+        <v>3.66890800166384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.833674694006284</v>
+        <v>9.364496127346147</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.80965622569766</v>
+        <v>27.3673779610746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.80693879529604</v>
+        <v>19.29930329817671</v>
       </c>
       <c r="C9">
-        <v>20.13654451185446</v>
+        <v>12.23611796749721</v>
       </c>
       <c r="D9">
-        <v>13.31466184867585</v>
+        <v>15.12604789869196</v>
       </c>
       <c r="E9">
-        <v>14.38529521350036</v>
+        <v>16.54356895108348</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.062600567552822</v>
+        <v>3.661887896500161</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.080166990135258</v>
+        <v>9.348262612728591</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.65354780147228</v>
+        <v>27.17728077810643</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.38818624039204</v>
+        <v>20.3063855622829</v>
       </c>
       <c r="C10">
-        <v>21.95871680178363</v>
+        <v>13.11296542338122</v>
       </c>
       <c r="D10">
-        <v>14.24746425348531</v>
+        <v>15.26398500492358</v>
       </c>
       <c r="E10">
-        <v>15.38312024571834</v>
+        <v>16.68376900558137</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.048097539130705</v>
+        <v>3.657186759239508</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.276966535653774</v>
+        <v>9.343582601726053</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.42973385341723</v>
+        <v>27.08148785027336</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.5064199830637</v>
+        <v>20.75014474805262</v>
       </c>
       <c r="C11">
-        <v>22.74773630394855</v>
+        <v>13.49294072959859</v>
       </c>
       <c r="D11">
-        <v>14.66707762621025</v>
+        <v>15.3300160086012</v>
       </c>
       <c r="E11">
-        <v>15.83284433449376</v>
+        <v>16.75122117885762</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.04156551708396</v>
+        <v>3.655146034138953</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.370055610986318</v>
+        <v>9.343026408037721</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.81941108008665</v>
+        <v>27.0475864925979</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.92201978753256</v>
+        <v>20.91598152325679</v>
       </c>
       <c r="C12">
-        <v>23.04091491518841</v>
+        <v>13.63405138221135</v>
       </c>
       <c r="D12">
-        <v>14.82527938478048</v>
+        <v>15.35547716196362</v>
       </c>
       <c r="E12">
-        <v>16.00252668584077</v>
+        <v>16.77727711513413</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.039098562557731</v>
+        <v>3.654387243908881</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.405834426234547</v>
+        <v>9.343041714030152</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.9724398953211</v>
+        <v>27.03615149879456</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.83285875644066</v>
+        <v>20.88036572496851</v>
       </c>
       <c r="C13">
-        <v>22.97802076549049</v>
+        <v>13.60378503651683</v>
       </c>
       <c r="D13">
-        <v>14.79123876767962</v>
+        <v>15.34997359169703</v>
       </c>
       <c r="E13">
-        <v>15.96600997627216</v>
+        <v>16.77164292604504</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.039629621177747</v>
+        <v>3.654550042140067</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.398105043528425</v>
+        <v>9.343028374314533</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.93923597937306</v>
+        <v>27.03855166979942</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.54076777393204</v>
+        <v>20.76383317354769</v>
       </c>
       <c r="C14">
-        <v>22.77196784277861</v>
+        <v>13.50460595491924</v>
       </c>
       <c r="D14">
-        <v>14.68010694249781</v>
+        <v>15.33210165234739</v>
       </c>
       <c r="E14">
-        <v>15.84681657629757</v>
+        <v>16.75335461973556</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.041362444716829</v>
+        <v>3.655083328136413</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.372988470106759</v>
+        <v>9.343023141093369</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.83189011149989</v>
+        <v>27.04661755370529</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.36083737908092</v>
+        <v>20.69216259011004</v>
       </c>
       <c r="C15">
-        <v>22.64502851182636</v>
+        <v>13.44349260677243</v>
       </c>
       <c r="D15">
-        <v>14.61194472269981</v>
+        <v>15.32121357072374</v>
       </c>
       <c r="E15">
-        <v>15.77372670906151</v>
+        <v>16.74221888151931</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.042424616710548</v>
+        <v>3.65541180044089</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.357673135437627</v>
+        <v>9.343049349020163</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.76685569543365</v>
+        <v>27.05174114070707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.31399715407176</v>
+        <v>20.27708346860096</v>
       </c>
       <c r="C16">
-        <v>21.90636064595234</v>
+        <v>13.08774737806175</v>
       </c>
       <c r="D16">
-        <v>14.2199443448805</v>
+        <v>15.25973448261776</v>
       </c>
       <c r="E16">
-        <v>15.35364332935582</v>
+        <v>16.67943351562056</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.048525504262601</v>
+        <v>3.657322087310695</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.27095589738714</v>
+        <v>9.343650580166026</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.40502128930367</v>
+        <v>27.08389906952166</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.65759215245737</v>
+        <v>20.01866166464467</v>
       </c>
       <c r="C17">
-        <v>21.44308309145604</v>
+        <v>12.86462091655739</v>
       </c>
       <c r="D17">
-        <v>13.97823365914913</v>
+        <v>15.22284914670651</v>
       </c>
       <c r="E17">
-        <v>15.09484131231705</v>
+        <v>16.64184738442097</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.05228304849278</v>
+        <v>3.65851898859226</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.218680320478419</v>
+        <v>9.344422099278631</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.19256454529426</v>
+        <v>27.10611336693398</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.2747626138704</v>
+        <v>19.86867915236203</v>
       </c>
       <c r="C18">
-        <v>21.17285439001231</v>
+        <v>12.73450756320723</v>
       </c>
       <c r="D18">
-        <v>13.83876278214926</v>
+        <v>15.20194364075384</v>
       </c>
       <c r="E18">
-        <v>14.94558972705946</v>
+        <v>16.62057566044544</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.054450638405665</v>
+        <v>3.659216629145233</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.188947114537546</v>
+        <v>9.345013912932977</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.07379673980117</v>
+        <v>27.11980049615781</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.14422994442082</v>
+        <v>19.8176711374216</v>
       </c>
       <c r="C19">
-        <v>21.08070937431829</v>
+        <v>12.69015022169142</v>
       </c>
       <c r="D19">
-        <v>13.79146485915076</v>
+        <v>15.19491908769156</v>
       </c>
       <c r="E19">
-        <v>14.89498875774807</v>
+        <v>16.61343343310245</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.055185719203238</v>
+        <v>3.659454423368976</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.178936973094402</v>
+        <v>9.345239725400997</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.03416713700228</v>
+        <v>27.12459066478402</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.72801292863614</v>
+        <v>20.04631138282046</v>
       </c>
       <c r="C20">
-        <v>21.49278839574088</v>
+        <v>12.88855747715686</v>
       </c>
       <c r="D20">
-        <v>14.00401047656606</v>
+        <v>15.22674368257172</v>
       </c>
       <c r="E20">
-        <v>15.12243237443957</v>
+        <v>16.64581270384538</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.051882413880954</v>
+        <v>3.65839062333052</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.224210444043108</v>
+        <v>9.344324647943877</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.21482427558898</v>
+        <v>27.10365434516268</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.62677337860309</v>
+        <v>20.79812248477004</v>
       </c>
       <c r="C21">
-        <v>22.83264162055096</v>
+        <v>13.53381305540549</v>
       </c>
       <c r="D21">
-        <v>14.7127679606131</v>
+        <v>15.33733880781989</v>
       </c>
       <c r="E21">
-        <v>15.88184332074981</v>
+        <v>16.75871253386343</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.040853317989133</v>
+        <v>3.654926310131374</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.380351342550256</v>
+        <v>9.343018549038508</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.86327018769799</v>
+        <v>27.04421025173415</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.82206578785043</v>
+        <v>21.27656769411631</v>
       </c>
       <c r="C22">
-        <v>23.67570715076377</v>
+        <v>13.93931443433034</v>
       </c>
       <c r="D22">
-        <v>15.17193315872282</v>
+        <v>15.41227308030561</v>
       </c>
       <c r="E22">
-        <v>16.37457279940928</v>
+        <v>16.83548314211866</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.033681974013684</v>
+        <v>3.652743676624548</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.485486433347128</v>
+        <v>9.343481623663004</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.31902895031103</v>
+        <v>27.01354092584343</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.1882230691544</v>
+        <v>21.02243524413979</v>
       </c>
       <c r="C23">
-        <v>23.22868414817892</v>
+        <v>13.72439055453145</v>
       </c>
       <c r="D23">
-        <v>14.92723688804261</v>
+        <v>15.37204171062692</v>
       </c>
       <c r="E23">
-        <v>16.11191929214544</v>
+        <v>16.79424141124039</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.037507107510942</v>
+        <v>3.65390115936831</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.429085051577105</v>
+        <v>9.343114097331311</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.07278851457378</v>
+        <v>27.02915761045172</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.69619269727282</v>
+        <v>20.03381533372024</v>
       </c>
       <c r="C24">
-        <v>21.47032873604106</v>
+        <v>12.87774146912008</v>
       </c>
       <c r="D24">
-        <v>13.99235835859959</v>
+        <v>15.22498202616889</v>
       </c>
       <c r="E24">
-        <v>15.10995989536699</v>
+        <v>16.64401893197521</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.052063517754688</v>
+        <v>3.658448627586489</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.221709277322041</v>
+        <v>9.344368243877256</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.20475015022863</v>
+        <v>27.10476321701807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.80547295380149</v>
+        <v>18.91671680377606</v>
       </c>
       <c r="C25">
-        <v>19.42932784686385</v>
+        <v>11.89690941904891</v>
       </c>
       <c r="D25">
-        <v>12.96723515616694</v>
+        <v>15.0782585026765</v>
       </c>
       <c r="E25">
-        <v>14.01439584165976</v>
+        <v>16.49529115794959</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.068016779088299</v>
+        <v>3.663706448320891</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.010769512013459</v>
+        <v>9.351381572836166</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.39876027369952</v>
+        <v>27.22105585350922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.05649126858622</v>
+        <v>24.49567610495414</v>
       </c>
       <c r="C2">
-        <v>11.11937511077658</v>
+        <v>17.79787528810778</v>
       </c>
       <c r="D2">
-        <v>14.9809489550595</v>
+        <v>12.20002637631082</v>
       </c>
       <c r="E2">
-        <v>16.39770022460419</v>
+        <v>13.19700786839011</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.667884810023161</v>
+        <v>2.080073094011209</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.361415295849442</v>
+        <v>5.865960332600093</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.33609796950253</v>
+        <v>18.9092412585158</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.45358153290566</v>
+        <v>22.81390935592815</v>
       </c>
       <c r="C3">
-        <v>10.55984671663852</v>
+        <v>16.60995225242752</v>
       </c>
       <c r="D3">
-        <v>14.92190621030298</v>
+        <v>11.67418193689809</v>
       </c>
       <c r="E3">
-        <v>16.33920153341992</v>
+        <v>12.63828435728237</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.670909957096306</v>
+        <v>2.088477918700254</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.371251528264512</v>
+        <v>5.774199531903323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.43216004437329</v>
+        <v>18.63774180587309</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.07496380895604</v>
+        <v>21.7228750487502</v>
       </c>
       <c r="C4">
-        <v>10.20107496125499</v>
+        <v>15.83939382584147</v>
       </c>
       <c r="D4">
-        <v>14.8891232366978</v>
+        <v>11.34927094670478</v>
       </c>
       <c r="E4">
-        <v>16.30711106855635</v>
+        <v>12.29377936557573</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.672863441997519</v>
+        <v>2.093766075292502</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.378787643960573</v>
+        <v>5.720952642330826</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.49997969945234</v>
+        <v>18.49904709748232</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.91878789247725</v>
+        <v>21.26343694891892</v>
       </c>
       <c r="C5">
-        <v>10.0512012370221</v>
+        <v>15.51495548995008</v>
       </c>
       <c r="D5">
-        <v>14.87664525317529</v>
+        <v>11.21651241936355</v>
       </c>
       <c r="E5">
-        <v>16.29500479929133</v>
+        <v>12.15319201916232</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.673683738012624</v>
+        <v>2.09595476321327</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.382234851908871</v>
+        <v>5.700025053692755</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.52982527496845</v>
+        <v>18.44929456064596</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.89274829469804</v>
+        <v>21.1862476831674</v>
       </c>
       <c r="C6">
-        <v>10.02609816629172</v>
+        <v>15.46045073170771</v>
       </c>
       <c r="D6">
-        <v>14.87462676258906</v>
+        <v>11.19445162357442</v>
       </c>
       <c r="E6">
-        <v>16.29305341854729</v>
+        <v>12.12984086726026</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.673821413832912</v>
+        <v>2.096320275892074</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.382829972329398</v>
+        <v>5.696596383080361</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.53491408978265</v>
+        <v>18.44143339312462</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.07286487975987</v>
+        <v>21.71673914772705</v>
       </c>
       <c r="C7">
-        <v>10.1990683512066</v>
+        <v>15.83506066233983</v>
       </c>
       <c r="D7">
-        <v>14.88895137479593</v>
+        <v>11.34748172849858</v>
       </c>
       <c r="E7">
-        <v>16.30694385815608</v>
+        <v>12.29188392504105</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.672874406555283</v>
+        <v>2.093795454070431</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.378832611347953</v>
+        <v>5.720667293985163</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.50037328367503</v>
+        <v>18.49834909978377</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.85049116449869</v>
+        <v>23.92784146300302</v>
       </c>
       <c r="C8">
-        <v>10.92969369602329</v>
+        <v>17.39677495496625</v>
       </c>
       <c r="D8">
-        <v>14.95987660127699</v>
+        <v>12.01922633501294</v>
       </c>
       <c r="E8">
-        <v>16.37674070194101</v>
+        <v>13.00475163852304</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.66890800166384</v>
+        <v>2.082945628789471</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.364496127346147</v>
+        <v>5.833674694006282</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.3673779610746</v>
+        <v>18.80965622569765</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.29930329817671</v>
+        <v>27.80693879529604</v>
       </c>
       <c r="C9">
-        <v>12.23611796749721</v>
+        <v>20.13654451185447</v>
       </c>
       <c r="D9">
-        <v>15.12604789869196</v>
+        <v>13.31466184867583</v>
       </c>
       <c r="E9">
-        <v>16.54356895108348</v>
+        <v>14.38529521350042</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.661887896500161</v>
+        <v>2.062600567552689</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.348262612728591</v>
+        <v>6.080166990135314</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.17728077810643</v>
+        <v>19.65354780147226</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.3063855622829</v>
+        <v>30.38818624039207</v>
       </c>
       <c r="C10">
-        <v>13.11296542338122</v>
+        <v>21.95871680178365</v>
       </c>
       <c r="D10">
-        <v>15.26398500492358</v>
+        <v>14.24746425348528</v>
       </c>
       <c r="E10">
-        <v>16.68376900558137</v>
+        <v>15.38312024571833</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.657186759239508</v>
+        <v>2.048097539130841</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.343582601726053</v>
+        <v>6.276966535653791</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.08148785027336</v>
+        <v>20.42973385341719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.75014474805262</v>
+        <v>31.50641998306368</v>
       </c>
       <c r="C11">
-        <v>13.49294072959859</v>
+        <v>22.74773630394854</v>
       </c>
       <c r="D11">
-        <v>15.3300160086012</v>
+        <v>14.66707762621027</v>
       </c>
       <c r="E11">
-        <v>16.75122117885762</v>
+        <v>15.83284433449374</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.655146034138953</v>
+        <v>2.041565517083827</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.343026408037721</v>
+        <v>6.370055610986269</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.0475864925979</v>
+        <v>20.81941108008672</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.91598152325679</v>
+        <v>31.92201978753247</v>
       </c>
       <c r="C12">
-        <v>13.63405138221135</v>
+        <v>23.04091491518829</v>
       </c>
       <c r="D12">
-        <v>15.35547716196362</v>
+        <v>14.82527938478053</v>
       </c>
       <c r="E12">
-        <v>16.77727711513413</v>
+        <v>16.00252668584079</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.654387243908881</v>
+        <v>2.039098562557864</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.343041714030152</v>
+        <v>6.405834426234566</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.03615149879456</v>
+        <v>20.97243989532122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.88036572496851</v>
+        <v>31.83285875644069</v>
       </c>
       <c r="C13">
-        <v>13.60378503651683</v>
+        <v>22.97802076549054</v>
       </c>
       <c r="D13">
-        <v>15.34997359169703</v>
+        <v>14.79123876767955</v>
       </c>
       <c r="E13">
-        <v>16.77164292604504</v>
+        <v>15.96600997627212</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.654550042140067</v>
+        <v>2.039629621178014</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.343028374314533</v>
+        <v>6.398105043528396</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.03855166979942</v>
+        <v>20.93923597937296</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.76383317354769</v>
+        <v>31.54076777393199</v>
       </c>
       <c r="C14">
-        <v>13.50460595491924</v>
+        <v>22.77196784277859</v>
       </c>
       <c r="D14">
-        <v>15.33210165234739</v>
+        <v>14.68010694249778</v>
       </c>
       <c r="E14">
-        <v>16.75335461973556</v>
+        <v>15.84681657629755</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.655083328136413</v>
+        <v>2.041362444716829</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.343023141093369</v>
+        <v>6.372988470106724</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.04661755370529</v>
+        <v>20.8318901114999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.69216259011004</v>
+        <v>31.36083737908092</v>
       </c>
       <c r="C15">
-        <v>13.44349260677243</v>
+        <v>22.64502851182639</v>
       </c>
       <c r="D15">
-        <v>15.32121357072374</v>
+        <v>14.61194472269982</v>
       </c>
       <c r="E15">
-        <v>16.74221888151931</v>
+        <v>15.77372670906151</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.65541180044089</v>
+        <v>2.042424616710678</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.343049349020163</v>
+        <v>6.357673135437658</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.05174114070707</v>
+        <v>20.76685569543364</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.27708346860096</v>
+        <v>30.3139971540718</v>
       </c>
       <c r="C16">
-        <v>13.08774737806175</v>
+        <v>21.90636064595239</v>
       </c>
       <c r="D16">
-        <v>15.25973448261776</v>
+        <v>14.2199443448805</v>
       </c>
       <c r="E16">
-        <v>16.67943351562056</v>
+        <v>15.35364332935578</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.657322087310695</v>
+        <v>2.048525504262467</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.343650580166026</v>
+        <v>6.270955897387084</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.08389906952166</v>
+        <v>20.40502128930355</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.01866166464467</v>
+        <v>29.6575921524573</v>
       </c>
       <c r="C17">
-        <v>12.86462091655739</v>
+        <v>21.44308309145602</v>
       </c>
       <c r="D17">
-        <v>15.22284914670651</v>
+        <v>13.97823365914916</v>
       </c>
       <c r="E17">
-        <v>16.64184738442097</v>
+        <v>15.09484131231707</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.65851898859226</v>
+        <v>2.052283048492911</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.344422099278631</v>
+        <v>6.218680320478454</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.10611336693398</v>
+        <v>20.19256454529436</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.86867915236203</v>
+        <v>29.27476261387033</v>
       </c>
       <c r="C18">
-        <v>12.73450756320723</v>
+        <v>21.17285439001224</v>
       </c>
       <c r="D18">
-        <v>15.20194364075384</v>
+        <v>13.83876278214925</v>
       </c>
       <c r="E18">
-        <v>16.62057566044544</v>
+        <v>14.94558972705942</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.659216629145233</v>
+        <v>2.05445063840553</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.345013912932977</v>
+        <v>6.188947114537518</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.11980049615781</v>
+        <v>20.07379673980128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.8176711374216</v>
+        <v>29.14422994442083</v>
       </c>
       <c r="C19">
-        <v>12.69015022169142</v>
+        <v>21.08070937431838</v>
       </c>
       <c r="D19">
-        <v>15.19491908769156</v>
+        <v>13.79146485915081</v>
       </c>
       <c r="E19">
-        <v>16.61343343310245</v>
+        <v>14.8949887577481</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.659454423368976</v>
+        <v>2.055185719203638</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.345239725400997</v>
+        <v>6.178936973094387</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.12459066478402</v>
+        <v>20.03416713700227</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.04631138282046</v>
+        <v>29.7280129286361</v>
       </c>
       <c r="C20">
-        <v>12.88855747715686</v>
+        <v>21.49278839574096</v>
       </c>
       <c r="D20">
-        <v>15.22674368257172</v>
+        <v>14.0040104765661</v>
       </c>
       <c r="E20">
-        <v>16.64581270384538</v>
+        <v>15.12243237443958</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.65839062333052</v>
+        <v>2.051882413881355</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.344324647943877</v>
+        <v>6.224210444043132</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.10365434516268</v>
+        <v>20.21482427558894</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.79812248477004</v>
+        <v>31.62677337860302</v>
       </c>
       <c r="C21">
-        <v>13.53381305540549</v>
+        <v>22.83264162055098</v>
       </c>
       <c r="D21">
-        <v>15.33733880781989</v>
+        <v>14.71276796061306</v>
       </c>
       <c r="E21">
-        <v>16.75871253386343</v>
+        <v>15.88184332074981</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.654926310131374</v>
+        <v>2.040853317989135</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.343018549038508</v>
+        <v>6.380351342550293</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.04421025173415</v>
+        <v>20.86327018769802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.27656769411631</v>
+        <v>32.82206578785063</v>
       </c>
       <c r="C22">
-        <v>13.93931443433034</v>
+        <v>23.67570715076368</v>
       </c>
       <c r="D22">
-        <v>15.41227308030561</v>
+        <v>15.17193315872282</v>
       </c>
       <c r="E22">
-        <v>16.83548314211866</v>
+        <v>16.37457279940928</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.652743676624548</v>
+        <v>2.033681974013684</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.343481623663004</v>
+        <v>6.485486433347115</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.01354092584343</v>
+        <v>21.3190289503109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.02243524413979</v>
+        <v>32.18822306915438</v>
       </c>
       <c r="C23">
-        <v>13.72439055453145</v>
+        <v>23.22868414817887</v>
       </c>
       <c r="D23">
-        <v>15.37204171062692</v>
+        <v>14.92723688804259</v>
       </c>
       <c r="E23">
-        <v>16.79424141124039</v>
+        <v>16.11191929214545</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.65390115936831</v>
+        <v>2.037507107510677</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.343114097331311</v>
+        <v>6.429085051577147</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.02915761045172</v>
+        <v>21.07278851457378</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.03381533372024</v>
+        <v>29.69619269727277</v>
       </c>
       <c r="C24">
-        <v>12.87774146912008</v>
+        <v>21.47032873604109</v>
       </c>
       <c r="D24">
-        <v>15.22498202616889</v>
+        <v>13.99235835859959</v>
       </c>
       <c r="E24">
-        <v>16.64401893197521</v>
+        <v>15.10995989536699</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.658448627586489</v>
+        <v>2.052063517754555</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.344368243877256</v>
+        <v>6.221709277322041</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.10476321701807</v>
+        <v>20.20475015022866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.91671680377606</v>
+        <v>26.80547295380142</v>
       </c>
       <c r="C25">
-        <v>11.89690941904891</v>
+        <v>19.42932784686369</v>
       </c>
       <c r="D25">
-        <v>15.0782585026765</v>
+        <v>12.96723515616692</v>
       </c>
       <c r="E25">
-        <v>16.49529115794959</v>
+        <v>14.01439584165974</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.663706448320891</v>
+        <v>2.068016779088299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.351381572836166</v>
+        <v>6.010769512013452</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.22105585350922</v>
+        <v>19.39876027369968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49567610495414</v>
+        <v>24.33257522048788</v>
       </c>
       <c r="C2">
-        <v>17.79787528810778</v>
+        <v>21.32376131104072</v>
       </c>
       <c r="D2">
-        <v>12.20002637631082</v>
+        <v>12.68531732964878</v>
       </c>
       <c r="E2">
-        <v>13.19700786839011</v>
+        <v>14.20063172879035</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.080073094011209</v>
+        <v>48.60013041618541</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.625132195038157</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.695815740077886</v>
       </c>
       <c r="J2">
-        <v>5.865960332600093</v>
+        <v>14.26171112402299</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.79642047889539</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.68691996881619</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.9092412585158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.31088494895388</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.81390935592815</v>
+        <v>22.74997166135963</v>
       </c>
       <c r="C3">
-        <v>16.60995225242752</v>
+        <v>19.8579398851681</v>
       </c>
       <c r="D3">
-        <v>11.67418193689809</v>
+        <v>12.08209287645376</v>
       </c>
       <c r="E3">
-        <v>12.63828435728237</v>
+        <v>13.46396428900106</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.088477918700254</v>
+        <v>46.27440060499779</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.979993330671284</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.487157989790063</v>
       </c>
       <c r="J3">
-        <v>5.774199531903323</v>
+        <v>13.87150586413898</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.37028780197776</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.426245081687155</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.63774180587309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.48011688293403</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.7228750487502</v>
+        <v>21.72147368839843</v>
       </c>
       <c r="C4">
-        <v>15.83939382584147</v>
+        <v>18.91021252893459</v>
       </c>
       <c r="D4">
-        <v>11.34927094670478</v>
+        <v>11.69883436539157</v>
       </c>
       <c r="E4">
-        <v>12.29377936557573</v>
+        <v>12.99235316394264</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.093766075292502</v>
+        <v>44.80166761618318</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.204756331874089</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.64448027424037</v>
       </c>
       <c r="J4">
-        <v>5.720952642330826</v>
+        <v>13.6303207735245</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.10819010451121</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.260546017665655</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.49904709748232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.5846388291737</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.26343694891892</v>
+        <v>21.28024996614253</v>
       </c>
       <c r="C5">
-        <v>15.51495548995008</v>
+        <v>18.51855471964028</v>
       </c>
       <c r="D5">
-        <v>11.21651241936355</v>
+        <v>11.5393737845579</v>
       </c>
       <c r="E5">
-        <v>12.15319201916232</v>
+        <v>12.79506045715007</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.09595476321327</v>
+        <v>44.16548211591141</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.298555473887676</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.71323892549594</v>
       </c>
       <c r="J5">
-        <v>5.700025053692755</v>
+        <v>13.52653383122419</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.99068896983158</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.191398474096489</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.44929456064596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.6266138753102</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.1862476831674</v>
+        <v>21.19652908402606</v>
       </c>
       <c r="C6">
-        <v>15.46045073170771</v>
+        <v>18.46088838093236</v>
       </c>
       <c r="D6">
-        <v>11.19445162357442</v>
+        <v>11.51250217910808</v>
       </c>
       <c r="E6">
-        <v>12.12984086726026</v>
+        <v>12.76160286267707</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.096320275892074</v>
+        <v>44.02817612187631</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.314763263925184</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.728952505047456</v>
       </c>
       <c r="J6">
-        <v>5.696596383080361</v>
+        <v>13.50294460925545</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.95817385819424</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.17956130294341</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.44143339312462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.63263004160656</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.71673914772705</v>
+        <v>21.6899747684079</v>
       </c>
       <c r="C7">
-        <v>15.83506066233983</v>
+        <v>18.92652327847835</v>
       </c>
       <c r="D7">
-        <v>11.34748172849858</v>
+        <v>11.69613445361307</v>
       </c>
       <c r="E7">
-        <v>12.29188392504105</v>
+        <v>12.98860832076126</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.093795454070431</v>
+        <v>44.70972753446959</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.207429051637104</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.656670935851891</v>
       </c>
       <c r="J7">
-        <v>5.720667293985163</v>
+        <v>13.61176391671188</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.07132675715253</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.258890057149752</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.49834909978377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.58263368541212</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.92784146300302</v>
+        <v>23.76730944811285</v>
       </c>
       <c r="C8">
-        <v>17.39677495496625</v>
+        <v>20.8543141437472</v>
       </c>
       <c r="D8">
-        <v>12.01922633501294</v>
+        <v>12.4793724108475</v>
       </c>
       <c r="E8">
-        <v>13.00475163852304</v>
+        <v>13.94930673514963</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.082945628789471</v>
+        <v>47.70362447792969</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.74789663887045</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.616092330408953</v>
       </c>
       <c r="J8">
-        <v>5.833674694006282</v>
+        <v>14.10556909395657</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.60407539248729</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.597304319483019</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.80965622569765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.36602110673372</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.80693879529604</v>
+        <v>27.46139448279723</v>
       </c>
       <c r="C9">
-        <v>20.13654451185447</v>
+        <v>24.22628400065589</v>
       </c>
       <c r="D9">
-        <v>13.31466184867583</v>
+        <v>13.90954980071332</v>
       </c>
       <c r="E9">
-        <v>14.38529521350042</v>
+        <v>15.67949197671973</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.062600567552689</v>
+        <v>53.33704903683147</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.208494197265895</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.192916808648316</v>
       </c>
       <c r="J9">
-        <v>6.080166990135314</v>
+        <v>15.08744062463678</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.70435232045036</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.216885211565684</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.65354780147226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.94900040781359</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.38818624039207</v>
+        <v>29.86349188255786</v>
       </c>
       <c r="C10">
-        <v>21.95871680178365</v>
+        <v>26.36602178549632</v>
       </c>
       <c r="D10">
-        <v>14.24746425348528</v>
+        <v>14.75127728396863</v>
       </c>
       <c r="E10">
-        <v>15.38312024571833</v>
+        <v>16.60011294310945</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.048097539130841</v>
+        <v>56.79160409266051</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.767652092286606</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.591972395036794</v>
       </c>
       <c r="J10">
-        <v>6.276966535653791</v>
+        <v>15.70028221385134</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.36090299692522</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.539385196303485</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.42973385341719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.63824288346489</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.50641998306368</v>
+        <v>30.13334086834359</v>
       </c>
       <c r="C11">
-        <v>22.74773630394854</v>
+        <v>26.26097343071692</v>
       </c>
       <c r="D11">
-        <v>14.66707762621027</v>
+        <v>13.92329385632212</v>
       </c>
       <c r="E11">
-        <v>15.83284433449374</v>
+        <v>14.85316789575991</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.041565517083827</v>
+        <v>54.7559799379613</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.471616465904245</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.675093812442863</v>
       </c>
       <c r="J11">
-        <v>6.370055610986269</v>
+        <v>15.19493407283581</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.4840645287018</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.838849382283112</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.81941108008672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.486900058789</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.92201978753247</v>
+        <v>29.89839124462789</v>
       </c>
       <c r="C12">
-        <v>23.04091491518829</v>
+        <v>25.70361643516046</v>
       </c>
       <c r="D12">
-        <v>14.82527938478053</v>
+        <v>13.04202703830248</v>
       </c>
       <c r="E12">
-        <v>16.00252668584079</v>
+        <v>13.22373515460519</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.039098562557864</v>
+        <v>52.38587746170086</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.553891517357498</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.664716118906601</v>
       </c>
       <c r="J12">
-        <v>6.405834426234566</v>
+        <v>14.65388832793257</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.64588071288716</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.274180991234454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.97243989532122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.45846750657525</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.83285875644069</v>
+        <v>29.22479466740017</v>
       </c>
       <c r="C13">
-        <v>22.97802076549054</v>
+        <v>24.77147637998717</v>
       </c>
       <c r="D13">
-        <v>14.79123876767955</v>
+        <v>12.04630488510055</v>
       </c>
       <c r="E13">
-        <v>15.96600997627212</v>
+        <v>11.56887598175231</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.039629621178014</v>
+        <v>49.44374281067704</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.750751308523276</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.583991069091182</v>
       </c>
       <c r="J13">
-        <v>6.398105043528396</v>
+        <v>14.02034327761781</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.72733480957695</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.795851506590973</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.93923597937296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.51557956020076</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.54076777393199</v>
+        <v>28.54000996714757</v>
       </c>
       <c r="C14">
-        <v>22.77196784277859</v>
+        <v>23.94140401383212</v>
       </c>
       <c r="D14">
-        <v>14.68010694249778</v>
+        <v>11.28953392692721</v>
       </c>
       <c r="E14">
-        <v>15.84681657629755</v>
+        <v>10.41454990252164</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.041362444716829</v>
+        <v>47.07230170536793</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.633242905861351</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.497065893184409</v>
       </c>
       <c r="J14">
-        <v>6.372988470106724</v>
+        <v>13.52786449867805</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.03821644088656</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.530932836780804</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.8318901114999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.59587769698433</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.36083737908092</v>
+        <v>28.26898916101434</v>
       </c>
       <c r="C15">
-        <v>22.64502851182639</v>
+        <v>23.66221206836063</v>
       </c>
       <c r="D15">
-        <v>14.61194472269982</v>
+        <v>11.07985788157649</v>
       </c>
       <c r="E15">
-        <v>15.77372670906151</v>
+        <v>10.12245906324912</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.042424616710678</v>
+        <v>46.34320025407025</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.832170163416423</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.461209934322997</v>
       </c>
       <c r="J15">
-        <v>6.357673135437658</v>
+        <v>13.38333483033408</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.84294580270719</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.471719790043495</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.76685569543364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.62968507422826</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.3139971540718</v>
+        <v>27.35881372496616</v>
       </c>
       <c r="C16">
-        <v>21.90636064595239</v>
+        <v>22.90773563690186</v>
       </c>
       <c r="D16">
-        <v>14.2199443448805</v>
+        <v>10.87520240628207</v>
       </c>
       <c r="E16">
-        <v>15.35364332935578</v>
+        <v>9.978000508562195</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.048525504262467</v>
+        <v>45.25798072594063</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.531997757673548</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.310416750795515</v>
       </c>
       <c r="J16">
-        <v>6.270955897387084</v>
+        <v>13.2206923821228</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.70744927180283</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.409072027459367</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.40502128930355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.73916944681571</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.6575921524573</v>
+        <v>27.02760030137178</v>
       </c>
       <c r="C17">
-        <v>21.44308309145602</v>
+        <v>22.78370515373609</v>
       </c>
       <c r="D17">
-        <v>13.97823365914916</v>
+        <v>11.13266143616238</v>
       </c>
       <c r="E17">
-        <v>15.09484131231707</v>
+        <v>10.484453259724</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.052283048492911</v>
+        <v>45.73138421176714</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.775886853677693</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.240399874621291</v>
       </c>
       <c r="J17">
-        <v>6.218680320478454</v>
+        <v>13.36289911435033</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.97365629678447</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.487633054448378</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.19256454529436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.78094859047279</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.27476261387033</v>
+        <v>27.18925968448371</v>
       </c>
       <c r="C18">
-        <v>21.17285439001224</v>
+        <v>23.18579648617584</v>
       </c>
       <c r="D18">
-        <v>13.83876278214925</v>
+        <v>11.82217081703758</v>
       </c>
       <c r="E18">
-        <v>14.94558972705942</v>
+        <v>11.67900553586028</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.05445063840553</v>
+        <v>47.65865324721378</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.584106981015827</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.232133844922019</v>
       </c>
       <c r="J18">
-        <v>6.188947114537518</v>
+        <v>13.79451592607557</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.64188492754465</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.781480269184955</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.07379673980128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.78241563384168</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.14422994442083</v>
+        <v>27.69545716331473</v>
       </c>
       <c r="C19">
-        <v>21.08070937431838</v>
+        <v>24.00648997794434</v>
       </c>
       <c r="D19">
-        <v>13.79146485915081</v>
+        <v>12.80392796064822</v>
       </c>
       <c r="E19">
-        <v>14.8949887577481</v>
+        <v>13.39381185995862</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.055185719203638</v>
+        <v>50.44947414299708</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.307608641202369</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.284113884462112</v>
       </c>
       <c r="J19">
-        <v>6.178936973094387</v>
+        <v>14.39616768182103</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.5287822852291</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.326704071023808</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.03416713700227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.77214868791322</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.7280129286361</v>
+        <v>29.18559630229972</v>
       </c>
       <c r="C20">
-        <v>21.49278839574096</v>
+        <v>25.86268784110889</v>
       </c>
       <c r="D20">
-        <v>14.0040104765661</v>
+        <v>14.52644453260947</v>
       </c>
       <c r="E20">
-        <v>15.12243237443958</v>
+        <v>16.34874039625177</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.051882413881355</v>
+        <v>55.66819162792935</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.616581420595185</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.492603085131154</v>
       </c>
       <c r="J20">
-        <v>6.224210444043132</v>
+        <v>15.48886443368072</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.08307195654734</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.449302553289372</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.21482427558894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.71406339839783</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.62677337860302</v>
+        <v>31.08798543780282</v>
       </c>
       <c r="C21">
-        <v>22.83264162055098</v>
+        <v>27.61516609139504</v>
       </c>
       <c r="D21">
-        <v>14.71276796061306</v>
+        <v>15.36669461539766</v>
       </c>
       <c r="E21">
-        <v>15.88184332074981</v>
+        <v>17.41989086874938</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.040853317989135</v>
+        <v>58.91731759223921</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.075264580226515</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.811581135320913</v>
       </c>
       <c r="J21">
-        <v>6.380351342550293</v>
+        <v>16.10181925536886</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.81094786566774</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.851192402007431</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.86327018769802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.48288668309497</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.82206578785063</v>
+        <v>32.25903309406485</v>
       </c>
       <c r="C22">
-        <v>23.67570715076368</v>
+        <v>28.63939744691734</v>
       </c>
       <c r="D22">
-        <v>15.17193315872282</v>
+        <v>15.83132180188023</v>
       </c>
       <c r="E22">
-        <v>16.37457279940928</v>
+        <v>17.97270348586332</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.033681974013684</v>
+        <v>60.86725096707235</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.360319382250263</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.010826271534508</v>
       </c>
       <c r="J22">
-        <v>6.485486433347115</v>
+        <v>16.47290604076669</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.25808416461328</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.055791933409731</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.3190289503109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.33147467070291</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.18822306915438</v>
+        <v>31.66074438296083</v>
       </c>
       <c r="C23">
-        <v>23.22868414817887</v>
+        <v>28.07838770041623</v>
       </c>
       <c r="D23">
-        <v>14.92723688804259</v>
+        <v>15.58508788529906</v>
       </c>
       <c r="E23">
-        <v>16.11191929214545</v>
+        <v>17.68029000448217</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.037507107510677</v>
+        <v>59.90713434279227</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.209949110504097</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.902923598182729</v>
       </c>
       <c r="J23">
-        <v>6.429085051577147</v>
+        <v>16.29240293621018</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.05617680309028</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.947749739471228</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.07278851457378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.41436459863656</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.69619269727277</v>
+        <v>29.2584414849602</v>
       </c>
       <c r="C24">
-        <v>21.47032873604109</v>
+        <v>25.90361047769149</v>
       </c>
       <c r="D24">
-        <v>13.99235835859959</v>
+        <v>14.62507039053762</v>
       </c>
       <c r="E24">
-        <v>15.10995989536699</v>
+        <v>16.53610380753375</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.052063517754555</v>
+        <v>56.05978649690627</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.630481547341637</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.493001435103688</v>
       </c>
       <c r="J24">
-        <v>6.221709277322041</v>
+        <v>15.57625066495812</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.23297637257451</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.527577825785656</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.20475015022866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.72417498239649</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.80547295380142</v>
+        <v>26.44968835276317</v>
       </c>
       <c r="C25">
-        <v>19.42932784686369</v>
+        <v>23.38545251334125</v>
       </c>
       <c r="D25">
-        <v>12.96723515616692</v>
+        <v>13.53372421080237</v>
       </c>
       <c r="E25">
-        <v>14.01439584165974</v>
+        <v>15.22660695320461</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.068016779088299</v>
+        <v>51.72413087431544</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.986578319568696</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.04229860289543</v>
       </c>
       <c r="J25">
-        <v>6.010769512013452</v>
+        <v>14.79530108904345</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.347638232407</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.052988588478392</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.39876027369968</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.05787563033156</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.33257522048788</v>
+        <v>23.362434606323</v>
       </c>
       <c r="C2">
-        <v>21.32376131104072</v>
+        <v>22.09219241504338</v>
       </c>
       <c r="D2">
-        <v>12.68531732964878</v>
+        <v>12.68319378084131</v>
       </c>
       <c r="E2">
-        <v>14.20063172879035</v>
+        <v>14.19645608060518</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.60013041618541</v>
+        <v>44.9078348041736</v>
       </c>
       <c r="H2">
-        <v>1.625132195038157</v>
+        <v>1.630681267833166</v>
       </c>
       <c r="I2">
-        <v>2.695815740077886</v>
+        <v>2.729264787143959</v>
       </c>
       <c r="J2">
-        <v>14.26171112402299</v>
+        <v>13.90629746227146</v>
       </c>
       <c r="K2">
-        <v>19.79642047889539</v>
+        <v>18.24409462842232</v>
       </c>
       <c r="L2">
-        <v>6.68691996881619</v>
+        <v>15.35368339892048</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.87955939187843</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.684120307751057</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.31088494895388</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.17071960640367</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.74997166135963</v>
+        <v>21.87653286006674</v>
       </c>
       <c r="C3">
-        <v>19.8579398851681</v>
+        <v>20.55272330381619</v>
       </c>
       <c r="D3">
-        <v>12.08209287645376</v>
+        <v>12.09076275648893</v>
       </c>
       <c r="E3">
-        <v>13.46396428900106</v>
+        <v>13.4810082682782</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.27440060499779</v>
+        <v>42.93470183184602</v>
       </c>
       <c r="H3">
-        <v>1.979993330671284</v>
+        <v>1.957825587771701</v>
       </c>
       <c r="I3">
-        <v>2.487157989790063</v>
+        <v>2.524329660134072</v>
       </c>
       <c r="J3">
-        <v>13.87150586413898</v>
+        <v>13.54932886445141</v>
       </c>
       <c r="K3">
-        <v>19.37028780197776</v>
+        <v>17.96578771001903</v>
       </c>
       <c r="L3">
-        <v>6.426245081687155</v>
+        <v>15.29850563785666</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.48749454131587</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.437573888215314</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.48011688293403</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.32266594869354</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.72147368839843</v>
+        <v>20.90898156933208</v>
       </c>
       <c r="C4">
-        <v>18.91021252893459</v>
+        <v>19.56887601184665</v>
       </c>
       <c r="D4">
-        <v>11.69883436539157</v>
+        <v>11.71449600381484</v>
       </c>
       <c r="E4">
-        <v>12.99235316394264</v>
+        <v>13.02313314216836</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.80166761618318</v>
+        <v>41.68934742079986</v>
       </c>
       <c r="H4">
-        <v>2.204756331874089</v>
+        <v>2.165333907458689</v>
       </c>
       <c r="I4">
-        <v>2.64448027424037</v>
+        <v>2.556784529879758</v>
       </c>
       <c r="J4">
-        <v>13.6303207735245</v>
+        <v>13.32532482633078</v>
       </c>
       <c r="K4">
-        <v>19.10819010451121</v>
+        <v>17.79428306857937</v>
       </c>
       <c r="L4">
-        <v>6.260546017665655</v>
+        <v>15.25900966100834</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.26368644701297</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.280869798188377</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.5846388291737</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.41720349070777</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.28024996614253</v>
+        <v>20.49330663482606</v>
       </c>
       <c r="C5">
-        <v>18.51855471964028</v>
+        <v>19.16690881991664</v>
       </c>
       <c r="D5">
-        <v>11.5393737845579</v>
+        <v>11.5580037591522</v>
       </c>
       <c r="E5">
-        <v>12.79506045715007</v>
+        <v>12.83166836075262</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.16548211591141</v>
+        <v>41.14969724276686</v>
       </c>
       <c r="H5">
-        <v>2.298555473887676</v>
+        <v>2.25198581615858</v>
       </c>
       <c r="I5">
-        <v>2.71323892549594</v>
+        <v>2.616809301079227</v>
       </c>
       <c r="J5">
-        <v>13.52653383122419</v>
+        <v>13.22798864480509</v>
       </c>
       <c r="K5">
-        <v>18.99068896983158</v>
+        <v>17.71448920485136</v>
       </c>
       <c r="L5">
-        <v>6.191398474096489</v>
+        <v>15.23355364388807</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.1701803982373</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.215497492509522</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.6266138753102</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.45572847414785</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.19652908402606</v>
+        <v>20.41426138630066</v>
       </c>
       <c r="C6">
-        <v>18.46088838093236</v>
+        <v>19.10728335825893</v>
       </c>
       <c r="D6">
-        <v>11.51250217910808</v>
+        <v>11.5316543865521</v>
       </c>
       <c r="E6">
-        <v>12.76160286267707</v>
+        <v>12.79923529246806</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.02817612187631</v>
+        <v>41.03011403123367</v>
       </c>
       <c r="H6">
-        <v>2.314763263925184</v>
+        <v>2.266944160144511</v>
       </c>
       <c r="I6">
-        <v>2.728952505047456</v>
+        <v>2.631730476235213</v>
       </c>
       <c r="J6">
-        <v>13.50294460925545</v>
+        <v>13.20575153200278</v>
       </c>
       <c r="K6">
-        <v>18.95817385819424</v>
+        <v>17.68931255047097</v>
       </c>
       <c r="L6">
-        <v>6.17956130294341</v>
+        <v>15.21955829507615</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.14649999773876</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.20432232770796</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.63263004160656</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.46175739302753</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6899747684079</v>
+        <v>20.86736117925917</v>
       </c>
       <c r="C7">
-        <v>18.92652327847835</v>
+        <v>19.56325573999855</v>
       </c>
       <c r="D7">
-        <v>11.69613445361307</v>
+        <v>11.71150266805754</v>
       </c>
       <c r="E7">
-        <v>12.98860832076126</v>
+        <v>13.01880969532957</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.70972753446959</v>
+        <v>41.67668629590673</v>
       </c>
       <c r="H7">
-        <v>2.207429051637104</v>
+        <v>2.168746249103469</v>
       </c>
       <c r="I7">
-        <v>2.656670935851891</v>
+        <v>2.571534314100746</v>
       </c>
       <c r="J7">
-        <v>13.61176391671188</v>
+        <v>13.24341056061488</v>
       </c>
       <c r="K7">
-        <v>19.07132675715253</v>
+        <v>17.74578302033699</v>
       </c>
       <c r="L7">
-        <v>6.258890057149752</v>
+        <v>15.2205596175821</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.22826492368132</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.278832467147046</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.58263368541212</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.41640091189557</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76730944811285</v>
+        <v>22.79606610370221</v>
       </c>
       <c r="C8">
-        <v>20.8543141437472</v>
+        <v>21.53294673570394</v>
       </c>
       <c r="D8">
-        <v>12.4793724108475</v>
+        <v>12.47978613453862</v>
       </c>
       <c r="E8">
-        <v>13.94930673514963</v>
+        <v>13.95012013750401</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.70362447792969</v>
+        <v>44.3689137624936</v>
       </c>
       <c r="H8">
-        <v>1.74789663887045</v>
+        <v>1.746822971751363</v>
       </c>
       <c r="I8">
-        <v>2.616092330408953</v>
+        <v>2.659825690164852</v>
       </c>
       <c r="J8">
-        <v>14.10556909395657</v>
+        <v>13.5566926145703</v>
       </c>
       <c r="K8">
-        <v>19.60407539248729</v>
+        <v>18.05770843624939</v>
       </c>
       <c r="L8">
-        <v>6.597304319483019</v>
+        <v>15.26576521700526</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.67267268602203</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.597848266375485</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.36602110673372</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.22145100752137</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.46139448279723</v>
+        <v>26.27580940943685</v>
       </c>
       <c r="C9">
-        <v>24.22628400065589</v>
+        <v>25.06245767494649</v>
       </c>
       <c r="D9">
-        <v>13.90954980071332</v>
+        <v>13.88443838896566</v>
       </c>
       <c r="E9">
-        <v>15.67949197671973</v>
+        <v>15.63014866144619</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.33704903683147</v>
+        <v>49.21992715710519</v>
       </c>
       <c r="H9">
-        <v>2.208494197265895</v>
+        <v>2.142207099952887</v>
       </c>
       <c r="I9">
-        <v>3.192916808648316</v>
+        <v>3.151525544232859</v>
       </c>
       <c r="J9">
-        <v>15.08744062463678</v>
+        <v>14.3937930058055</v>
       </c>
       <c r="K9">
-        <v>20.70435232045036</v>
+        <v>18.77601427100624</v>
       </c>
       <c r="L9">
-        <v>7.216885211565684</v>
+        <v>15.39779349984217</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.74732563961362</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.183393046350815</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.94900040781359</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.85056723589756</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.86349188255786</v>
+        <v>28.45821048916249</v>
       </c>
       <c r="C10">
-        <v>26.36602178549632</v>
+        <v>27.1998152094266</v>
       </c>
       <c r="D10">
-        <v>14.75127728396863</v>
+        <v>14.70731547187516</v>
       </c>
       <c r="E10">
-        <v>16.60011294310945</v>
+        <v>16.51341931011537</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.79160409266051</v>
+        <v>52.55081927731005</v>
       </c>
       <c r="H10">
-        <v>2.767652092286606</v>
+        <v>2.649688531464772</v>
       </c>
       <c r="I10">
-        <v>3.591972395036794</v>
+        <v>3.487829794657118</v>
       </c>
       <c r="J10">
-        <v>15.70028221385134</v>
+        <v>14.56739588923754</v>
       </c>
       <c r="K10">
-        <v>21.36090299692522</v>
+        <v>19.09984457553299</v>
       </c>
       <c r="L10">
-        <v>7.539385196303485</v>
+        <v>15.32433094358663</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.42875929040398</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.48007714127283</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.63824288346489</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.58928919803058</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.13334086834359</v>
+        <v>28.64729130114132</v>
       </c>
       <c r="C11">
-        <v>26.26097343071692</v>
+        <v>26.8637015686646</v>
       </c>
       <c r="D11">
-        <v>13.92329385632212</v>
+        <v>13.87363389309312</v>
       </c>
       <c r="E11">
-        <v>14.85316789575991</v>
+        <v>14.74996899476244</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>54.7559799379613</v>
+        <v>51.41416772713377</v>
       </c>
       <c r="H11">
-        <v>3.471616465904245</v>
+        <v>3.365432613130886</v>
       </c>
       <c r="I11">
-        <v>3.675093812442863</v>
+        <v>3.554502565620414</v>
       </c>
       <c r="J11">
-        <v>15.19493407283581</v>
+        <v>13.413750395101</v>
       </c>
       <c r="K11">
-        <v>20.4840645287018</v>
+        <v>18.14268426421812</v>
       </c>
       <c r="L11">
-        <v>6.838849382283112</v>
+        <v>14.50157572803526</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.85245526192033</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.767107366292721</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.486900058789</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.55011049315072</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.89839124462789</v>
+        <v>28.41953136430367</v>
       </c>
       <c r="C12">
-        <v>25.70361643516046</v>
+        <v>26.16748156666939</v>
       </c>
       <c r="D12">
-        <v>13.04202703830248</v>
+        <v>12.99211451555028</v>
       </c>
       <c r="E12">
-        <v>13.22373515460519</v>
+        <v>13.11441640092849</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.38587746170086</v>
+        <v>49.60977401524764</v>
       </c>
       <c r="H12">
-        <v>4.553891517357498</v>
+        <v>4.475118930572295</v>
       </c>
       <c r="I12">
-        <v>3.664716118906601</v>
+        <v>3.543558406423949</v>
       </c>
       <c r="J12">
-        <v>14.65388832793257</v>
+        <v>12.63446939367684</v>
       </c>
       <c r="K12">
-        <v>19.64588071288716</v>
+        <v>17.35754059447349</v>
       </c>
       <c r="L12">
-        <v>6.274180991234454</v>
+        <v>13.89986196916446</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.28429901568483</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.198258365954043</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.45846750657525</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.60009180252623</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.22479466740017</v>
+        <v>27.84510578185005</v>
       </c>
       <c r="C13">
-        <v>24.77147637998717</v>
+        <v>25.19272589121503</v>
       </c>
       <c r="D13">
-        <v>12.04630488510055</v>
+        <v>12.00075305707016</v>
       </c>
       <c r="E13">
-        <v>11.56887598175231</v>
+        <v>11.46312882486138</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49.44374281067704</v>
+        <v>46.87145153356109</v>
       </c>
       <c r="H13">
-        <v>5.750751308523276</v>
+        <v>5.697258224588744</v>
       </c>
       <c r="I13">
-        <v>3.583991069091182</v>
+        <v>3.477618962938613</v>
       </c>
       <c r="J13">
-        <v>14.02034327761781</v>
+        <v>12.18502804172424</v>
       </c>
       <c r="K13">
-        <v>18.72733480957695</v>
+        <v>16.63514984877117</v>
       </c>
       <c r="L13">
-        <v>5.795851506590973</v>
+        <v>13.40671167144218</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.67271526915026</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.724149413502722</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.51557956020076</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.70431304732228</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.54000996714757</v>
+        <v>27.27182267733124</v>
       </c>
       <c r="C14">
-        <v>23.94140401383212</v>
+        <v>24.37337857058818</v>
       </c>
       <c r="D14">
-        <v>11.28953392692721</v>
+        <v>11.24902459637374</v>
       </c>
       <c r="E14">
-        <v>10.41454990252164</v>
+        <v>10.31625209259651</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.07230170536793</v>
+        <v>44.48874376825026</v>
       </c>
       <c r="H14">
-        <v>6.633242905861351</v>
+        <v>6.594419445900603</v>
       </c>
       <c r="I14">
-        <v>3.497065893184409</v>
+        <v>3.408044551513584</v>
       </c>
       <c r="J14">
-        <v>13.52786449867805</v>
+        <v>11.99863216189875</v>
       </c>
       <c r="K14">
-        <v>18.03821644088656</v>
+        <v>16.14618060671408</v>
       </c>
       <c r="L14">
-        <v>5.530932836780804</v>
+        <v>13.09882613858243</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.21679042144001</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.466652237651902</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.59587769698433</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.79955368284995</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.26898916101434</v>
+        <v>27.04668505107857</v>
       </c>
       <c r="C15">
-        <v>23.66221206836063</v>
+        <v>24.11414677361883</v>
       </c>
       <c r="D15">
-        <v>11.07985788157649</v>
+        <v>11.0415940294733</v>
       </c>
       <c r="E15">
-        <v>10.12245906324912</v>
+        <v>10.02861887500135</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.34320025407025</v>
+        <v>43.69293465158696</v>
       </c>
       <c r="H15">
-        <v>6.832170163416423</v>
+        <v>6.79745654749884</v>
       </c>
       <c r="I15">
-        <v>3.461209934322997</v>
+        <v>3.380162895174701</v>
       </c>
       <c r="J15">
-        <v>13.38333483033408</v>
+        <v>12.00360926908282</v>
       </c>
       <c r="K15">
-        <v>17.84294580270719</v>
+        <v>16.02698209385499</v>
       </c>
       <c r="L15">
-        <v>5.471719790043495</v>
+        <v>13.03446089367948</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.08757449485961</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.411109218103988</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.62968507422826</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.83050323703254</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.35881372496616</v>
+        <v>26.29377024608188</v>
       </c>
       <c r="C16">
-        <v>22.90773563690186</v>
+        <v>23.50456997549724</v>
       </c>
       <c r="D16">
-        <v>10.87520240628207</v>
+        <v>10.84636524309424</v>
       </c>
       <c r="E16">
-        <v>9.978000508562195</v>
+        <v>9.907784932254657</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.25798072594063</v>
+        <v>42.08521157599403</v>
       </c>
       <c r="H16">
-        <v>6.531997757673548</v>
+        <v>6.507404218690723</v>
       </c>
       <c r="I16">
-        <v>3.310416750795515</v>
+        <v>3.259883230126995</v>
       </c>
       <c r="J16">
-        <v>13.2206923821228</v>
+        <v>12.46232649478728</v>
       </c>
       <c r="K16">
-        <v>17.70744927180283</v>
+        <v>16.11285815975519</v>
       </c>
       <c r="L16">
-        <v>5.409072027459367</v>
+        <v>13.19569438119845</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.99143070386344</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.363991954999269</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.73916944681571</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.88456156358701</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.02760030137178</v>
+        <v>26.0092327340492</v>
       </c>
       <c r="C17">
-        <v>22.78370515373609</v>
+        <v>23.46351011880991</v>
       </c>
       <c r="D17">
-        <v>11.13266143616238</v>
+        <v>11.10804079503891</v>
       </c>
       <c r="E17">
-        <v>10.484453259724</v>
+        <v>10.4263012123249</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>45.73138421176714</v>
+        <v>42.25578317009351</v>
       </c>
       <c r="H17">
-        <v>5.775886853677693</v>
+        <v>5.753274210884147</v>
       </c>
       <c r="I17">
-        <v>3.240399874621291</v>
+        <v>3.203280615150229</v>
       </c>
       <c r="J17">
-        <v>13.36289911435033</v>
+        <v>12.84645450840525</v>
       </c>
       <c r="K17">
-        <v>17.97365629678447</v>
+        <v>16.4240241293808</v>
       </c>
       <c r="L17">
-        <v>5.487633054448378</v>
+        <v>13.47922035467954</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.14657469545357</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.449522441555268</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.78094859047279</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.88435305521047</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.18925968448371</v>
+        <v>26.14440243225231</v>
       </c>
       <c r="C18">
-        <v>23.18579648617584</v>
+        <v>23.9381054815302</v>
       </c>
       <c r="D18">
-        <v>11.82217081703758</v>
+        <v>11.79796005099578</v>
       </c>
       <c r="E18">
-        <v>11.67900553586028</v>
+        <v>11.62470539164117</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>47.65865324721378</v>
+        <v>43.89691343962565</v>
       </c>
       <c r="H18">
-        <v>4.584106981015827</v>
+        <v>4.55578441005487</v>
       </c>
       <c r="I18">
-        <v>3.232133844922019</v>
+        <v>3.194966259665633</v>
       </c>
       <c r="J18">
-        <v>13.79451592607557</v>
+        <v>13.33719148816222</v>
       </c>
       <c r="K18">
-        <v>18.64188492754465</v>
+        <v>17.01853590461241</v>
       </c>
       <c r="L18">
-        <v>5.781480269184955</v>
+        <v>13.94427660393766</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.57174589707185</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.744785585272695</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.78241563384168</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.84137280461449</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.69545716331473</v>
+        <v>26.57767844909525</v>
       </c>
       <c r="C19">
-        <v>24.00648997794434</v>
+        <v>24.82920354255795</v>
       </c>
       <c r="D19">
-        <v>12.80392796064822</v>
+        <v>12.77713105871807</v>
       </c>
       <c r="E19">
-        <v>13.39381185995862</v>
+        <v>13.33714256730992</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.44947414299708</v>
+        <v>46.38743799701099</v>
       </c>
       <c r="H19">
-        <v>3.307608641202369</v>
+        <v>3.261094782221949</v>
       </c>
       <c r="I19">
-        <v>3.284113884462112</v>
+        <v>3.238760996419442</v>
       </c>
       <c r="J19">
-        <v>14.39616768182103</v>
+        <v>13.89825127814163</v>
       </c>
       <c r="K19">
-        <v>19.5287822852291</v>
+        <v>17.75991914201962</v>
       </c>
       <c r="L19">
-        <v>6.326704071023808</v>
+        <v>14.49662794870137</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.14840145622221</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.287757686413986</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.77214868791322</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.78350261988816</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.18559630229972</v>
+        <v>27.87251066744394</v>
       </c>
       <c r="C20">
-        <v>25.86268784110889</v>
+        <v>26.75246590998706</v>
       </c>
       <c r="D20">
-        <v>14.52644453260947</v>
+        <v>14.48866644525978</v>
       </c>
       <c r="E20">
-        <v>16.34874039625177</v>
+        <v>16.27428279200257</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.66819162792935</v>
+        <v>51.25035925814635</v>
       </c>
       <c r="H20">
-        <v>2.616581420595185</v>
+        <v>2.515570305633828</v>
       </c>
       <c r="I20">
-        <v>3.492603085131154</v>
+        <v>3.41161211503068</v>
       </c>
       <c r="J20">
-        <v>15.48886443368072</v>
+        <v>14.67975458442377</v>
       </c>
       <c r="K20">
-        <v>21.08307195654734</v>
+        <v>18.96763661004205</v>
       </c>
       <c r="L20">
-        <v>7.449302553289372</v>
+        <v>15.31058313721664</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.20976826530807</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.398448472087113</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.71406339839783</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.6575933844984</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.08798543780282</v>
+        <v>29.42983372421641</v>
       </c>
       <c r="C21">
-        <v>27.61516609139504</v>
+        <v>28.22331478461115</v>
       </c>
       <c r="D21">
-        <v>15.36669461539766</v>
+        <v>15.30839287905905</v>
       </c>
       <c r="E21">
-        <v>17.41989086874938</v>
+        <v>17.30571669120719</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.91731759223921</v>
+        <v>55.48272359879967</v>
       </c>
       <c r="H21">
-        <v>3.075264580226515</v>
+        <v>2.917117446146574</v>
       </c>
       <c r="I21">
-        <v>3.811581135320913</v>
+        <v>3.665039192608974</v>
       </c>
       <c r="J21">
-        <v>16.10181925536886</v>
+        <v>13.88477025581478</v>
       </c>
       <c r="K21">
-        <v>21.81094786566774</v>
+        <v>19.14857709601038</v>
       </c>
       <c r="L21">
-        <v>7.851192402007431</v>
+        <v>15.20514450310437</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.68849536318414</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.773094626696205</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.48288668309497</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.45935520634123</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.25903309406485</v>
+        <v>30.37693790160357</v>
       </c>
       <c r="C22">
-        <v>28.63939744691734</v>
+        <v>29.04802858402862</v>
       </c>
       <c r="D22">
-        <v>15.83132180188023</v>
+        <v>15.7599230653563</v>
       </c>
       <c r="E22">
-        <v>17.97270348586332</v>
+        <v>17.83310480574998</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.86725096707235</v>
+        <v>58.15360369137582</v>
       </c>
       <c r="H22">
-        <v>3.360319382250263</v>
+        <v>3.16550300862491</v>
       </c>
       <c r="I22">
-        <v>4.010826271534508</v>
+        <v>3.820667386239916</v>
       </c>
       <c r="J22">
-        <v>16.47290604076669</v>
+        <v>13.2838093911619</v>
       </c>
       <c r="K22">
-        <v>22.25808416461328</v>
+        <v>19.23030963618022</v>
       </c>
       <c r="L22">
-        <v>8.055791933409731</v>
+        <v>15.10847170718453</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.97668992967969</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.960191547040236</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.33147467070291</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.33565551285248</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.66074438296083</v>
+        <v>29.9186323472222</v>
       </c>
       <c r="C23">
-        <v>28.07838770041623</v>
+        <v>28.63328353059665</v>
       </c>
       <c r="D23">
-        <v>15.58508788529906</v>
+        <v>15.52123485401626</v>
       </c>
       <c r="E23">
-        <v>17.68029000448217</v>
+        <v>17.55532656342965</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.90713434279227</v>
+        <v>56.64972745028017</v>
       </c>
       <c r="H23">
-        <v>3.209949110504097</v>
+        <v>3.036252894809573</v>
       </c>
       <c r="I23">
-        <v>3.902923598182729</v>
+        <v>3.736254368101959</v>
       </c>
       <c r="J23">
-        <v>16.29240293621018</v>
+        <v>13.7624502860296</v>
       </c>
       <c r="K23">
-        <v>22.05617680309028</v>
+        <v>19.25562915475093</v>
       </c>
       <c r="L23">
-        <v>7.947749739471228</v>
+        <v>15.20852840583164</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.87805018670636</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.862225457944503</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.41436459863656</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.39898783324662</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.2584414849602</v>
+        <v>27.93824861479542</v>
       </c>
       <c r="C24">
-        <v>25.90361047769149</v>
+        <v>26.80314518283587</v>
       </c>
       <c r="D24">
-        <v>14.62507039053762</v>
+        <v>14.5869664922073</v>
       </c>
       <c r="E24">
-        <v>16.53610380753375</v>
+        <v>16.46132211731477</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.05978649690627</v>
+        <v>51.59892376088485</v>
       </c>
       <c r="H24">
-        <v>2.630481547341637</v>
+        <v>2.52838100988234</v>
       </c>
       <c r="I24">
-        <v>3.493001435103688</v>
+        <v>3.408913823816718</v>
       </c>
       <c r="J24">
-        <v>15.57625066495812</v>
+        <v>14.76969332651088</v>
       </c>
       <c r="K24">
-        <v>21.23297637257451</v>
+        <v>19.10096360134382</v>
       </c>
       <c r="L24">
-        <v>7.527577825785656</v>
+        <v>15.4112442887912</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.31084742462632</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.476590749848551</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.72417498239649</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.65673180959078</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.44968835276317</v>
+        <v>25.34586703361169</v>
       </c>
       <c r="C25">
-        <v>23.38545251334125</v>
+        <v>24.20576789942065</v>
       </c>
       <c r="D25">
-        <v>13.53372421080237</v>
+        <v>13.5158884971448</v>
       </c>
       <c r="E25">
-        <v>15.22660695320461</v>
+        <v>15.19154927685294</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.72413087431544</v>
+        <v>47.72190003954145</v>
       </c>
       <c r="H25">
-        <v>1.986578319568696</v>
+        <v>1.939928825250354</v>
       </c>
       <c r="I25">
-        <v>3.04229860289543</v>
+        <v>3.026885737448493</v>
       </c>
       <c r="J25">
-        <v>14.79530108904345</v>
+        <v>14.23025447198873</v>
       </c>
       <c r="K25">
-        <v>20.347638232407</v>
+        <v>18.54762355088181</v>
       </c>
       <c r="L25">
-        <v>7.052988588478392</v>
+        <v>15.34116975525734</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.41863494661453</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.029263939322969</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.05787563033156</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.94980792919968</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
